--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fazli\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2760AD-6547-41C2-B7AB-F7A63882A75A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE5810D-3D8B-40B1-A417-095102314BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -181,22 +181,40 @@
     <t>Seayar</t>
   </si>
   <si>
-    <t>As an admin I want to be able to acess the menu, raw materials list, and customers in one window</t>
-  </si>
-  <si>
     <t xml:space="preserve">Asa user, I want to be able to acess the menu and the available tables in one window </t>
   </si>
   <si>
-    <t>As an admin I want to be able to access customers list So, I can see the list of registered customers</t>
+    <t>PRODUCT BACKLOG</t>
   </si>
   <si>
-    <t>As an admin I want to be able to access customers list So, I can delete customers from the list</t>
+    <t>As a user I want to be able to register a table</t>
   </si>
   <si>
-    <t>Maihan &amp; Khalid</t>
+    <t>As an admin I want to be able to have meals, desserts, and drinks categories in the menu</t>
   </si>
   <si>
-    <t>PRODUCT BACKLOG</t>
+    <t>As a user I want to be able to have meals, desserts, and drinks categories in the menu</t>
+  </si>
+  <si>
+    <t>As a waiter, I want to be able to access attendance, and reserved tables</t>
+  </si>
+  <si>
+    <t>As an admin I want to be able to acess the menu, raw materials list, waiters list, and customers in one window</t>
+  </si>
+  <si>
+    <t>3 Days</t>
+  </si>
+  <si>
+    <t>As an admin I want to be able to access customers reservations list So, I can delete customers from the list</t>
+  </si>
+  <si>
+    <t>As an admin I want to be able to access customers reservation list So, I can see the list of registered customers</t>
+  </si>
+  <si>
+    <t>As an admin I want to be able to access registered customers  list So, I can see the list of registered customers</t>
+  </si>
+  <si>
+    <t>As an admin I want to be able to access registered customers  list So, I can delete registered customers</t>
   </si>
 </sst>
 </file>
@@ -208,7 +226,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="[$$]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -244,6 +262,16 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -359,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -463,11 +491,47 @@
     <xf numFmtId="44" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,10 +751,10 @@
     <tabColor rgb="FF44546A"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q1002"/>
+  <dimension ref="A1:Q1032"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G66" sqref="C66:G66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A155" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -707,7 +771,7 @@
     <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -842,7 +906,7 @@
     </row>
     <row r="6" spans="1:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="37">
+      <c r="B6" s="48">
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -867,7 +931,7 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="38"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
@@ -900,7 +964,7 @@
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
@@ -933,7 +997,7 @@
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="20" t="s">
         <v>24</v>
       </c>
@@ -966,7 +1030,7 @@
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
@@ -999,11 +1063,11 @@
     </row>
     <row r="11" spans="1:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
-      <c r="B11" s="37">
+      <c r="B11" s="48">
         <v>2</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>52</v>
@@ -1024,7 +1088,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
-      <c r="B12" s="38"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="33" t="s">
         <v>20</v>
       </c>
@@ -1057,7 +1121,7 @@
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="33" t="s">
         <v>23</v>
       </c>
@@ -1090,7 +1154,7 @@
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="33" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +1187,7 @@
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="39"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="33" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1220,7 @@
     </row>
     <row r="16" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="37">
+      <c r="B16" s="48">
         <v>3</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1181,7 +1245,7 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="38"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="20" t="s">
         <v>20</v>
       </c>
@@ -1190,17 +1254,17 @@
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
       <c r="H17" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L17" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M17" s="27">
         <v>0</v>
@@ -1214,7 +1278,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="38"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="20" t="s">
         <v>23</v>
       </c>
@@ -1223,17 +1287,17 @@
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
       <c r="H18" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K18" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L18" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M18" s="27">
         <v>0</v>
@@ -1247,7 +1311,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="38"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="20" t="s">
         <v>24</v>
       </c>
@@ -1256,17 +1320,17 @@
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
       <c r="H19" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K19" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L19" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M19" s="27">
         <v>0</v>
@@ -1280,7 +1344,7 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="20" t="s">
         <v>25</v>
       </c>
@@ -1289,17 +1353,17 @@
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
       <c r="H20" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L20" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M20" s="27">
         <v>0</v>
@@ -1313,7 +1377,7 @@
     </row>
     <row r="21" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
-      <c r="B21" s="37">
+      <c r="B21" s="48">
         <v>4</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1338,7 +1402,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="38"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="20" t="s">
         <v>20</v>
       </c>
@@ -1347,17 +1411,17 @@
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
       <c r="H22" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K22" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L22" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M22" s="27">
         <v>0</v>
@@ -1371,7 +1435,7 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="38"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="20" t="s">
         <v>23</v>
       </c>
@@ -1380,17 +1444,17 @@
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
       <c r="H23" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L23" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M23" s="27">
         <v>0</v>
@@ -1404,7 +1468,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="38"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="20" t="s">
         <v>24</v>
       </c>
@@ -1413,17 +1477,17 @@
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
       <c r="H24" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K24" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L24" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M24" s="27">
         <v>0</v>
@@ -1437,7 +1501,7 @@
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="39"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="20" t="s">
         <v>25</v>
       </c>
@@ -1446,17 +1510,17 @@
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
       <c r="H25" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K25" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L25" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M25" s="27">
         <v>0</v>
@@ -1470,7 +1534,7 @@
     </row>
     <row r="26" spans="1:15" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
-      <c r="B26" s="37">
+      <c r="B26" s="48">
         <v>5</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -1495,7 +1559,7 @@
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="38"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="20" t="s">
         <v>20</v>
       </c>
@@ -1504,17 +1568,17 @@
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
       <c r="H27" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L27" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M27" s="27">
         <v>0</v>
@@ -1528,7 +1592,7 @@
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="38"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="20" t="s">
         <v>23</v>
       </c>
@@ -1537,17 +1601,17 @@
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
       <c r="H28" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K28" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L28" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M28" s="27">
         <v>0</v>
@@ -1561,7 +1625,7 @@
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-      <c r="B29" s="38"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="20" t="s">
         <v>24</v>
       </c>
@@ -1570,17 +1634,17 @@
       <c r="F29" s="29"/>
       <c r="G29" s="30"/>
       <c r="H29" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K29" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L29" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="27">
         <v>0</v>
@@ -1594,7 +1658,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
-      <c r="B30" s="39"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="20" t="s">
         <v>25</v>
       </c>
@@ -1603,17 +1667,17 @@
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
       <c r="H30" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K30" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L30" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M30" s="27">
         <v>0</v>
@@ -1627,11 +1691,11 @@
     </row>
     <row r="31" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
-      <c r="B31" s="37">
+      <c r="B31" s="51">
         <v>6</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>30</v>
@@ -1652,26 +1716,26 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="28"/>
       <c r="F32" s="29"/>
       <c r="G32" s="30"/>
       <c r="H32" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K32" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L32" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M32" s="27">
         <v>0</v>
@@ -1685,26 +1749,26 @@
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="28"/>
       <c r="F33" s="29"/>
       <c r="G33" s="30"/>
       <c r="H33" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I33" s="31"/>
       <c r="J33" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K33" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L33" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M33" s="27">
         <v>0</v>
@@ -1718,26 +1782,26 @@
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="51"/>
+      <c r="C34" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="28"/>
       <c r="F34" s="29"/>
       <c r="G34" s="30"/>
       <c r="H34" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I34" s="31"/>
       <c r="J34" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K34" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L34" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M34" s="27">
         <v>0</v>
@@ -1749,28 +1813,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="20" t="s">
+      <c r="B35" s="51"/>
+      <c r="C35" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="28"/>
       <c r="F35" s="29"/>
       <c r="G35" s="30"/>
       <c r="H35" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I35" s="31"/>
       <c r="J35" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K35" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L35" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M35" s="27">
         <v>0</v>
@@ -1782,13 +1846,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
-      <c r="B36" s="37">
+      <c r="B36" s="48">
         <v>7</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>30</v>
@@ -1809,11 +1873,11 @@
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="28"/>
       <c r="F37" s="29"/>
       <c r="G37" s="30"/>
@@ -1822,13 +1886,13 @@
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K37" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L37" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M37" s="27">
         <v>0</v>
@@ -1842,11 +1906,11 @@
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="28"/>
       <c r="F38" s="29"/>
       <c r="G38" s="30"/>
@@ -1855,13 +1919,13 @@
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K38" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L38" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M38" s="27">
         <v>0</v>
@@ -1875,11 +1939,11 @@
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="49"/>
+      <c r="C39" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
@@ -1888,13 +1952,13 @@
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K39" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L39" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M39" s="27">
         <v>0</v>
@@ -1908,11 +1972,11 @@
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="20" t="s">
+      <c r="B40" s="50"/>
+      <c r="C40" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
       <c r="G40" s="30"/>
@@ -1921,13 +1985,13 @@
       </c>
       <c r="I40" s="31"/>
       <c r="J40" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K40" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L40" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M40" s="27">
         <v>0</v>
@@ -1939,21 +2003,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
-      <c r="B41" s="37">
+      <c r="B41" s="48">
         <v>8</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
@@ -1966,13 +2030,11 @@
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="20" t="s">
+      <c r="B42" s="49"/>
+      <c r="C42" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="D42" s="33"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
       <c r="G42" s="30"/>
@@ -1981,13 +2043,13 @@
       </c>
       <c r="I42" s="31"/>
       <c r="J42" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K42" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L42" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M42" s="27">
         <v>0</v>
@@ -2001,13 +2063,11 @@
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="49"/>
+      <c r="C43" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="D43" s="33"/>
       <c r="E43" s="28"/>
       <c r="F43" s="29"/>
       <c r="G43" s="30"/>
@@ -2016,13 +2076,13 @@
       </c>
       <c r="I43" s="31"/>
       <c r="J43" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K43" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L43" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M43" s="27">
         <v>0</v>
@@ -2036,13 +2096,11 @@
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="D44" s="33"/>
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
       <c r="G44" s="30"/>
@@ -2051,13 +2109,13 @@
       </c>
       <c r="I44" s="31"/>
       <c r="J44" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K44" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L44" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M44" s="27">
         <v>0</v>
@@ -2071,11 +2129,11 @@
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="20" t="s">
+      <c r="B45" s="50"/>
+      <c r="C45" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="20"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="28"/>
       <c r="F45" s="29"/>
       <c r="G45" s="30"/>
@@ -2084,13 +2142,13 @@
       </c>
       <c r="I45" s="31"/>
       <c r="J45" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K45" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L45" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M45" s="27">
         <v>0</v>
@@ -2102,21 +2160,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
-      <c r="B46" s="37">
+      <c r="B46" s="48">
         <v>9</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
       <c r="G46" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
@@ -2129,28 +2187,26 @@
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
-      <c r="B47" s="38"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="D47" s="20"/>
       <c r="E47" s="28"/>
       <c r="F47" s="29"/>
       <c r="G47" s="30"/>
       <c r="H47" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I47" s="31"/>
       <c r="J47" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K47" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L47" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M47" s="27">
         <v>0</v>
@@ -2164,28 +2220,26 @@
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
-      <c r="B48" s="38"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="D48" s="20"/>
       <c r="E48" s="28"/>
       <c r="F48" s="29"/>
       <c r="G48" s="30"/>
       <c r="H48" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I48" s="31"/>
       <c r="J48" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K48" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L48" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M48" s="27">
         <v>0</v>
@@ -2199,28 +2253,26 @@
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
-      <c r="B49" s="38"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="D49" s="20"/>
       <c r="E49" s="28"/>
       <c r="F49" s="29"/>
       <c r="G49" s="30"/>
       <c r="H49" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K49" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L49" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M49" s="27">
         <v>0</v>
@@ -2234,7 +2286,7 @@
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
-      <c r="B50" s="39"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="20" t="s">
         <v>25</v>
       </c>
@@ -2243,17 +2295,17 @@
       <c r="F50" s="29"/>
       <c r="G50" s="30"/>
       <c r="H50" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I50" s="31"/>
       <c r="J50" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K50" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L50" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M50" s="27">
         <v>0</v>
@@ -2265,21 +2317,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
-      <c r="B51" s="37">
+      <c r="B51" s="48">
         <v>10</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
       <c r="G51" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -2292,28 +2344,26 @@
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
-      <c r="B52" s="38"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="D52" s="20"/>
       <c r="E52" s="28"/>
       <c r="F52" s="29"/>
       <c r="G52" s="30"/>
       <c r="H52" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I52" s="31"/>
       <c r="J52" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K52" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L52" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M52" s="27">
         <v>0</v>
@@ -2327,28 +2377,26 @@
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
-      <c r="B53" s="38"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="D53" s="20"/>
       <c r="E53" s="28"/>
       <c r="F53" s="29"/>
       <c r="G53" s="30"/>
       <c r="H53" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K53" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L53" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M53" s="27">
         <v>0</v>
@@ -2362,28 +2410,26 @@
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
-      <c r="B54" s="38"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="D54" s="20"/>
       <c r="E54" s="28"/>
       <c r="F54" s="29"/>
       <c r="G54" s="30"/>
       <c r="H54" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I54" s="31"/>
       <c r="J54" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K54" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L54" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M54" s="27">
         <v>0</v>
@@ -2397,7 +2443,7 @@
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
-      <c r="B55" s="39"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="20" t="s">
         <v>25</v>
       </c>
@@ -2406,17 +2452,17 @@
       <c r="F55" s="29"/>
       <c r="G55" s="30"/>
       <c r="H55" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I55" s="31"/>
       <c r="J55" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K55" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L55" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M55" s="27">
         <v>0</v>
@@ -2428,15 +2474,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
-      <c r="B56" s="37">
+      <c r="B56" s="48">
         <v>11</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
       <c r="G56" s="17" t="s">
@@ -2453,26 +2501,28 @@
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
-      <c r="B57" s="38"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="20"/>
+      <c r="D57" s="36" t="s">
+        <v>18</v>
+      </c>
       <c r="E57" s="28"/>
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
       <c r="H57" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I57" s="31"/>
       <c r="J57" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K57" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L57" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M57" s="27">
         <v>0</v>
@@ -2486,26 +2536,28 @@
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
-      <c r="B58" s="38"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="20"/>
+      <c r="D58" s="36" t="s">
+        <v>18</v>
+      </c>
       <c r="E58" s="28"/>
       <c r="F58" s="29"/>
       <c r="G58" s="30"/>
       <c r="H58" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I58" s="31"/>
       <c r="J58" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K58" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L58" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M58" s="27">
         <v>0</v>
@@ -2519,26 +2571,28 @@
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
-      <c r="B59" s="38"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="20"/>
+      <c r="D59" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="E59" s="28"/>
       <c r="F59" s="29"/>
       <c r="G59" s="30"/>
       <c r="H59" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I59" s="31"/>
       <c r="J59" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K59" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L59" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M59" s="27">
         <v>0</v>
@@ -2552,7 +2606,7 @@
     </row>
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
-      <c r="B60" s="39"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="20" t="s">
         <v>25</v>
       </c>
@@ -2561,17 +2615,17 @@
       <c r="F60" s="29"/>
       <c r="G60" s="30"/>
       <c r="H60" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I60" s="31"/>
       <c r="J60" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K60" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L60" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M60" s="27">
         <v>0</v>
@@ -2583,16 +2637,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
-      <c r="B61" s="37">
+      <c r="B61" s="48">
         <v>12</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
@@ -2610,11 +2664,13 @@
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
-      <c r="B62" s="38"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="20"/>
+      <c r="D62" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="E62" s="28"/>
       <c r="F62" s="29"/>
       <c r="G62" s="30"/>
@@ -2643,11 +2699,13 @@
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
-      <c r="B63" s="38"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="20"/>
+      <c r="D63" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="E63" s="28"/>
       <c r="F63" s="29"/>
       <c r="G63" s="30"/>
@@ -2676,11 +2734,13 @@
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
-      <c r="B64" s="38"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D64" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="E64" s="28"/>
       <c r="F64" s="29"/>
       <c r="G64" s="30"/>
@@ -2709,7 +2769,7 @@
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
-      <c r="B65" s="39"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="20" t="s">
         <v>25</v>
       </c>
@@ -2740,16 +2800,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
-      <c r="B66" s="37">
+      <c r="B66" s="48">
         <v>13</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
@@ -2758,27 +2818,29 @@
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
-      <c r="J66" s="18"/>
+      <c r="J66" s="32"/>
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="33" t="s">
+      <c r="B67" s="49"/>
+      <c r="C67" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="26"/>
+      <c r="D67" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="28"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="31"/>
       <c r="J67" s="27" t="s">
         <v>22</v>
       </c>
@@ -2800,16 +2862,18 @@
     </row>
     <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="33" t="s">
+      <c r="B68" s="49"/>
+      <c r="C68" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="33"/>
+      <c r="D68" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="E68" s="28"/>
       <c r="F68" s="29"/>
       <c r="G68" s="30"/>
-      <c r="H68" s="25" t="s">
-        <v>21</v>
+      <c r="H68" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="I68" s="31"/>
       <c r="J68" s="27" t="s">
@@ -2833,16 +2897,18 @@
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="33" t="s">
+      <c r="B69" s="49"/>
+      <c r="C69" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="33"/>
+      <c r="D69" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="E69" s="28"/>
       <c r="F69" s="29"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="25" t="s">
-        <v>21</v>
+      <c r="H69" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="I69" s="31"/>
       <c r="J69" s="27" t="s">
@@ -2866,16 +2932,16 @@
     </row>
     <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="33" t="s">
+      <c r="B70" s="50"/>
+      <c r="C70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="33"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="28"/>
       <c r="F70" s="29"/>
       <c r="G70" s="30"/>
-      <c r="H70" s="25" t="s">
-        <v>21</v>
+      <c r="H70" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="I70" s="31"/>
       <c r="J70" s="27" t="s">
@@ -2897,16 +2963,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
-      <c r="B71" s="37">
+      <c r="B71" s="48">
         <v>14</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="16"/>
@@ -2924,7 +2990,7 @@
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
-      <c r="B72" s="38"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="20" t="s">
         <v>20</v>
       </c>
@@ -2933,18 +2999,14 @@
       <c r="F72" s="29"/>
       <c r="G72" s="30"/>
       <c r="H72" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I72" s="31"/>
       <c r="J72" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K72" s="27">
-        <v>50</v>
-      </c>
-      <c r="L72" s="27">
-        <v>50</v>
-      </c>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
       <c r="M72" s="27">
         <v>0</v>
       </c>
@@ -2957,7 +3019,7 @@
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
-      <c r="B73" s="38"/>
+      <c r="B73" s="49"/>
       <c r="C73" s="20" t="s">
         <v>23</v>
       </c>
@@ -2966,18 +3028,14 @@
       <c r="F73" s="29"/>
       <c r="G73" s="30"/>
       <c r="H73" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I73" s="31"/>
       <c r="J73" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K73" s="27">
-        <v>50</v>
-      </c>
-      <c r="L73" s="27">
-        <v>50</v>
-      </c>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
       <c r="M73" s="27">
         <v>0</v>
       </c>
@@ -2990,7 +3048,7 @@
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
-      <c r="B74" s="38"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="20" t="s">
         <v>24</v>
       </c>
@@ -2999,18 +3057,14 @@
       <c r="F74" s="29"/>
       <c r="G74" s="30"/>
       <c r="H74" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I74" s="31"/>
       <c r="J74" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K74" s="27">
-        <v>50</v>
-      </c>
-      <c r="L74" s="27">
-        <v>50</v>
-      </c>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
       <c r="M74" s="27">
         <v>0</v>
       </c>
@@ -3023,7 +3077,7 @@
     </row>
     <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
-      <c r="B75" s="39"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="20" t="s">
         <v>25</v>
       </c>
@@ -3032,18 +3086,14 @@
       <c r="F75" s="29"/>
       <c r="G75" s="30"/>
       <c r="H75" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I75" s="31"/>
       <c r="J75" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K75" s="27">
-        <v>50</v>
-      </c>
-      <c r="L75" s="27">
-        <v>50</v>
-      </c>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
       <c r="M75" s="27">
         <v>0</v>
       </c>
@@ -3054,15 +3104,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12"/>
-      <c r="B76" s="37">
+      <c r="B76" s="48">
         <v>15</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="E76" s="15"/>
       <c r="F76" s="16"/>
       <c r="G76" s="17" t="s">
@@ -3079,16 +3131,16 @@
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="33" t="s">
+      <c r="B77" s="49"/>
+      <c r="C77" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="33"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="28"/>
       <c r="F77" s="29"/>
       <c r="G77" s="30"/>
       <c r="H77" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I77" s="31"/>
       <c r="J77" s="27" t="s">
@@ -3112,16 +3164,16 @@
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="33" t="s">
+      <c r="B78" s="49"/>
+      <c r="C78" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="33"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="28"/>
       <c r="F78" s="29"/>
       <c r="G78" s="30"/>
       <c r="H78" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I78" s="31"/>
       <c r="J78" s="27" t="s">
@@ -3145,16 +3197,16 @@
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="33" t="s">
+      <c r="B79" s="49"/>
+      <c r="C79" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="33"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="28"/>
       <c r="F79" s="29"/>
       <c r="G79" s="30"/>
       <c r="H79" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I79" s="31"/>
       <c r="J79" s="27" t="s">
@@ -3178,16 +3230,16 @@
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="33" t="s">
+      <c r="B80" s="50"/>
+      <c r="C80" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="33"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="28"/>
       <c r="F80" s="29"/>
       <c r="G80" s="30"/>
       <c r="H80" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I80" s="31"/>
       <c r="J80" s="27" t="s">
@@ -3209,43 +3261,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12"/>
-      <c r="B81" s="37">
+      <c r="B81" s="52">
         <v>16</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="16"/>
       <c r="G81" s="17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
-      <c r="J81" s="32"/>
+      <c r="J81" s="18"/>
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
       <c r="N81" s="18"/>
       <c r="O81" s="18"/>
     </row>
-    <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="38"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="33"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="31"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I82" s="26"/>
       <c r="J82" s="27" t="s">
         <v>22</v>
       </c>
@@ -3267,7 +3321,7 @@
     </row>
     <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
-      <c r="B83" s="38"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="33" t="s">
         <v>23</v>
       </c>
@@ -3275,8 +3329,8 @@
       <c r="E83" s="28"/>
       <c r="F83" s="29"/>
       <c r="G83" s="30"/>
-      <c r="H83" s="33" t="s">
-        <v>21</v>
+      <c r="H83" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="I83" s="31"/>
       <c r="J83" s="27" t="s">
@@ -3300,7 +3354,7 @@
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
-      <c r="B84" s="38"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="33" t="s">
         <v>24</v>
       </c>
@@ -3308,8 +3362,8 @@
       <c r="E84" s="28"/>
       <c r="F84" s="29"/>
       <c r="G84" s="30"/>
-      <c r="H84" s="33" t="s">
-        <v>21</v>
+      <c r="H84" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="I84" s="31"/>
       <c r="J84" s="27" t="s">
@@ -3333,7 +3387,7 @@
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
-      <c r="B85" s="39"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="33" t="s">
         <v>25</v>
       </c>
@@ -3341,8 +3395,8 @@
       <c r="E85" s="28"/>
       <c r="F85" s="29"/>
       <c r="G85" s="30"/>
-      <c r="H85" s="33" t="s">
-        <v>21</v>
+      <c r="H85" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="I85" s="31"/>
       <c r="J85" s="27" t="s">
@@ -3364,15 +3418,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12"/>
-      <c r="B86" s="37">
+      <c r="B86" s="51">
         <v>17</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="16"/>
       <c r="G86" s="17" t="s">
@@ -3389,26 +3445,26 @@
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="20" t="s">
+      <c r="B87" s="51"/>
+      <c r="C87" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="20"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="28"/>
       <c r="F87" s="29"/>
       <c r="G87" s="30"/>
       <c r="H87" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I87" s="31"/>
       <c r="J87" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K87" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L87" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M87" s="27">
         <v>0</v>
@@ -3422,26 +3478,26 @@
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="20" t="s">
+      <c r="B88" s="51"/>
+      <c r="C88" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="20"/>
+      <c r="D88" s="33"/>
       <c r="E88" s="28"/>
       <c r="F88" s="29"/>
       <c r="G88" s="30"/>
       <c r="H88" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I88" s="31"/>
       <c r="J88" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K88" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L88" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M88" s="27">
         <v>0</v>
@@ -3455,26 +3511,26 @@
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="20" t="s">
+      <c r="B89" s="51"/>
+      <c r="C89" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D89" s="20"/>
+      <c r="D89" s="33"/>
       <c r="E89" s="28"/>
       <c r="F89" s="29"/>
       <c r="G89" s="30"/>
       <c r="H89" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I89" s="31"/>
       <c r="J89" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K89" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L89" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M89" s="27">
         <v>0</v>
@@ -3486,28 +3542,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="20" t="s">
+      <c r="B90" s="51"/>
+      <c r="C90" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D90" s="20"/>
+      <c r="D90" s="33"/>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
       <c r="G90" s="30"/>
       <c r="H90" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I90" s="31"/>
       <c r="J90" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K90" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L90" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M90" s="27">
         <v>0</v>
@@ -3519,15 +3575,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12"/>
-      <c r="B91" s="37">
+      <c r="B91" s="48">
         <v>18</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D91" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E91" s="15"/>
       <c r="F91" s="16"/>
       <c r="G91" s="17" t="s">
@@ -3544,26 +3602,26 @@
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="33" t="s">
+      <c r="B92" s="49"/>
+      <c r="C92" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="33"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="28"/>
       <c r="F92" s="29"/>
       <c r="G92" s="30"/>
       <c r="H92" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I92" s="31"/>
       <c r="J92" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K92" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L92" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M92" s="27">
         <v>0</v>
@@ -3577,26 +3635,26 @@
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="33" t="s">
+      <c r="B93" s="49"/>
+      <c r="C93" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="33"/>
+      <c r="D93" s="20"/>
       <c r="E93" s="28"/>
       <c r="F93" s="29"/>
       <c r="G93" s="30"/>
       <c r="H93" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I93" s="31"/>
       <c r="J93" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K93" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L93" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M93" s="27">
         <v>0</v>
@@ -3610,26 +3668,26 @@
     </row>
     <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="33" t="s">
+      <c r="B94" s="49"/>
+      <c r="C94" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D94" s="33"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="28"/>
       <c r="F94" s="29"/>
       <c r="G94" s="30"/>
       <c r="H94" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I94" s="31"/>
       <c r="J94" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K94" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L94" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M94" s="27">
         <v>0</v>
@@ -3643,26 +3701,26 @@
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="33" t="s">
+      <c r="B95" s="50"/>
+      <c r="C95" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D95" s="33"/>
+      <c r="D95" s="20"/>
       <c r="E95" s="28"/>
       <c r="F95" s="29"/>
       <c r="G95" s="30"/>
       <c r="H95" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I95" s="31"/>
       <c r="J95" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K95" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L95" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M95" s="27">
         <v>0</v>
@@ -3674,51 +3732,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
-      <c r="B96" s="37">
+    <row r="96" spans="1:15" s="47" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="38"/>
+      <c r="B96" s="53">
         <v>19</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
+      <c r="C96" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" s="41"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="20" t="s">
+      <c r="B97" s="53"/>
+      <c r="C97" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D97" s="20"/>
+      <c r="D97" s="33"/>
       <c r="E97" s="28"/>
       <c r="F97" s="29"/>
       <c r="G97" s="30"/>
       <c r="H97" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I97" s="31"/>
       <c r="J97" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K97" s="27">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L97" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M97" s="27">
         <v>0</v>
@@ -3732,26 +3790,26 @@
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="20" t="s">
+      <c r="B98" s="53"/>
+      <c r="C98" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="20"/>
+      <c r="D98" s="33"/>
       <c r="E98" s="28"/>
       <c r="F98" s="29"/>
       <c r="G98" s="30"/>
       <c r="H98" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I98" s="31"/>
       <c r="J98" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K98" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L98" s="27">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M98" s="27">
         <v>0</v>
@@ -3765,26 +3823,26 @@
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="20" t="s">
+      <c r="B99" s="53"/>
+      <c r="C99" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D99" s="20"/>
+      <c r="D99" s="33"/>
       <c r="E99" s="28"/>
       <c r="F99" s="29"/>
       <c r="G99" s="30"/>
       <c r="H99" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I99" s="31"/>
       <c r="J99" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K99" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L99" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M99" s="27">
         <v>0</v>
@@ -3798,26 +3856,26 @@
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="20" t="s">
+      <c r="B100" s="53"/>
+      <c r="C100" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="20"/>
+      <c r="D100" s="33"/>
       <c r="E100" s="28"/>
       <c r="F100" s="29"/>
       <c r="G100" s="30"/>
       <c r="H100" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I100" s="31"/>
       <c r="J100" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K100" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L100" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M100" s="27">
         <v>0</v>
@@ -3829,19 +3887,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12"/>
-      <c r="B101" s="37">
+      <c r="B101" s="48">
         <v>20</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E101" s="15"/>
       <c r="F101" s="16"/>
       <c r="G101" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
@@ -3854,11 +3914,11 @@
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="20" t="s">
+      <c r="B102" s="49"/>
+      <c r="C102" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="20"/>
+      <c r="D102" s="33"/>
       <c r="E102" s="28"/>
       <c r="F102" s="29"/>
       <c r="G102" s="30"/>
@@ -3870,10 +3930,10 @@
         <v>22</v>
       </c>
       <c r="K102" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L102" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M102" s="27">
         <v>0</v>
@@ -3887,11 +3947,11 @@
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="20" t="s">
+      <c r="B103" s="49"/>
+      <c r="C103" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D103" s="20"/>
+      <c r="D103" s="33"/>
       <c r="E103" s="28"/>
       <c r="F103" s="29"/>
       <c r="G103" s="30"/>
@@ -3903,10 +3963,10 @@
         <v>22</v>
       </c>
       <c r="K103" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L103" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M103" s="27">
         <v>0</v>
@@ -3920,11 +3980,11 @@
     </row>
     <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="20" t="s">
+      <c r="B104" s="49"/>
+      <c r="C104" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D104" s="20"/>
+      <c r="D104" s="33"/>
       <c r="E104" s="28"/>
       <c r="F104" s="29"/>
       <c r="G104" s="30"/>
@@ -3936,10 +3996,10 @@
         <v>22</v>
       </c>
       <c r="K104" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L104" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M104" s="27">
         <v>0</v>
@@ -3953,11 +4013,11 @@
     </row>
     <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="20" t="s">
+      <c r="B105" s="50"/>
+      <c r="C105" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D105" s="20"/>
+      <c r="D105" s="33"/>
       <c r="E105" s="28"/>
       <c r="F105" s="29"/>
       <c r="G105" s="30"/>
@@ -3969,10 +4029,10 @@
         <v>22</v>
       </c>
       <c r="K105" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L105" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M105" s="27">
         <v>0</v>
@@ -3984,15 +4044,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12"/>
-      <c r="B106" s="37">
+      <c r="B106" s="48">
         <v>21</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D106" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E106" s="15"/>
       <c r="F106" s="16"/>
       <c r="G106" s="17" t="s">
@@ -4009,7 +4071,7 @@
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
-      <c r="B107" s="38"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="33" t="s">
         <v>20</v>
       </c>
@@ -4025,10 +4087,10 @@
         <v>22</v>
       </c>
       <c r="K107" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L107" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M107" s="27">
         <v>0</v>
@@ -4042,7 +4104,7 @@
     </row>
     <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19"/>
-      <c r="B108" s="38"/>
+      <c r="B108" s="49"/>
       <c r="C108" s="33" t="s">
         <v>23</v>
       </c>
@@ -4058,10 +4120,10 @@
         <v>22</v>
       </c>
       <c r="K108" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L108" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M108" s="27">
         <v>0</v>
@@ -4075,7 +4137,7 @@
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19"/>
-      <c r="B109" s="38"/>
+      <c r="B109" s="49"/>
       <c r="C109" s="33" t="s">
         <v>24</v>
       </c>
@@ -4091,10 +4153,10 @@
         <v>22</v>
       </c>
       <c r="K109" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L109" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M109" s="27">
         <v>0</v>
@@ -4108,7 +4170,7 @@
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19"/>
-      <c r="B110" s="39"/>
+      <c r="B110" s="50"/>
       <c r="C110" s="33" t="s">
         <v>25</v>
       </c>
@@ -4124,10 +4186,10 @@
         <v>22</v>
       </c>
       <c r="K110" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L110" s="27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M110" s="27">
         <v>0</v>
@@ -4139,15 +4201,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12"/>
-      <c r="B111" s="37">
+      <c r="B111" s="48">
         <v>22</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D111" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E111" s="15"/>
       <c r="F111" s="16"/>
       <c r="G111" s="17" t="s">
@@ -4164,11 +4228,11 @@
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="33" t="s">
+      <c r="B112" s="49"/>
+      <c r="C112" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="33"/>
+      <c r="D112" s="20"/>
       <c r="E112" s="28"/>
       <c r="F112" s="29"/>
       <c r="G112" s="30"/>
@@ -4197,11 +4261,11 @@
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="33" t="s">
+      <c r="B113" s="49"/>
+      <c r="C113" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D113" s="33"/>
+      <c r="D113" s="20"/>
       <c r="E113" s="28"/>
       <c r="F113" s="29"/>
       <c r="G113" s="30"/>
@@ -4230,11 +4294,11 @@
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="33" t="s">
+      <c r="B114" s="49"/>
+      <c r="C114" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D114" s="33"/>
+      <c r="D114" s="20"/>
       <c r="E114" s="28"/>
       <c r="F114" s="29"/>
       <c r="G114" s="30"/>
@@ -4263,11 +4327,11 @@
     </row>
     <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="33" t="s">
+      <c r="B115" s="50"/>
+      <c r="C115" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="33"/>
+      <c r="D115" s="20"/>
       <c r="E115" s="28"/>
       <c r="F115" s="29"/>
       <c r="G115" s="30"/>
@@ -4294,15 +4358,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12"/>
-      <c r="B116" s="37">
+      <c r="B116" s="48">
         <v>23</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D116" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E116" s="15"/>
       <c r="F116" s="16"/>
       <c r="G116" s="17" t="s">
@@ -4319,7 +4385,7 @@
     </row>
     <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19"/>
-      <c r="B117" s="38"/>
+      <c r="B117" s="49"/>
       <c r="C117" s="33" t="s">
         <v>20</v>
       </c>
@@ -4335,7 +4401,7 @@
         <v>22</v>
       </c>
       <c r="K117" s="27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L117" s="27">
         <v>0</v>
@@ -4352,7 +4418,7 @@
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19"/>
-      <c r="B118" s="38"/>
+      <c r="B118" s="49"/>
       <c r="C118" s="33" t="s">
         <v>23</v>
       </c>
@@ -4371,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="27">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M118" s="27">
         <v>0</v>
@@ -4385,7 +4451,7 @@
     </row>
     <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19"/>
-      <c r="B119" s="38"/>
+      <c r="B119" s="49"/>
       <c r="C119" s="33" t="s">
         <v>24</v>
       </c>
@@ -4418,7 +4484,7 @@
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="19"/>
-      <c r="B120" s="39"/>
+      <c r="B120" s="50"/>
       <c r="C120" s="33" t="s">
         <v>25</v>
       </c>
@@ -4449,19 +4515,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12"/>
-      <c r="B121" s="37">
+      <c r="B121" s="48">
         <v>24</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D121" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E121" s="15"/>
       <c r="F121" s="16"/>
       <c r="G121" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
@@ -4474,11 +4542,11 @@
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="33" t="s">
+      <c r="B122" s="49"/>
+      <c r="C122" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="33"/>
+      <c r="D122" s="20"/>
       <c r="E122" s="28"/>
       <c r="F122" s="29"/>
       <c r="G122" s="30"/>
@@ -4490,7 +4558,7 @@
         <v>22</v>
       </c>
       <c r="K122" s="27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L122" s="27">
         <v>0</v>
@@ -4507,11 +4575,11 @@
     </row>
     <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="19"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="33" t="s">
+      <c r="B123" s="49"/>
+      <c r="C123" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D123" s="33"/>
+      <c r="D123" s="20"/>
       <c r="E123" s="28"/>
       <c r="F123" s="29"/>
       <c r="G123" s="30"/>
@@ -4526,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M123" s="27">
         <v>0</v>
@@ -4540,11 +4608,11 @@
     </row>
     <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="19"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="33" t="s">
+      <c r="B124" s="49"/>
+      <c r="C124" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D124" s="33"/>
+      <c r="D124" s="20"/>
       <c r="E124" s="28"/>
       <c r="F124" s="29"/>
       <c r="G124" s="30"/>
@@ -4573,11 +4641,11 @@
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="33" t="s">
+      <c r="B125" s="50"/>
+      <c r="C125" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D125" s="33"/>
+      <c r="D125" s="20"/>
       <c r="E125" s="28"/>
       <c r="F125" s="29"/>
       <c r="G125" s="30"/>
@@ -4604,16 +4672,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12"/>
-      <c r="B126" s="37">
+      <c r="B126" s="48">
         <v>25</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E126" s="15"/>
       <c r="F126" s="16"/>
@@ -4631,20 +4699,20 @@
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="33" t="s">
+      <c r="B127" s="49"/>
+      <c r="C127" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="33"/>
+      <c r="D127" s="20"/>
       <c r="E127" s="28"/>
       <c r="F127" s="29"/>
       <c r="G127" s="30"/>
       <c r="H127" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I127" s="31"/>
       <c r="J127" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K127" s="27">
         <v>0</v>
@@ -4664,20 +4732,20 @@
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="33" t="s">
+      <c r="B128" s="49"/>
+      <c r="C128" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D128" s="33"/>
+      <c r="D128" s="20"/>
       <c r="E128" s="28"/>
       <c r="F128" s="29"/>
       <c r="G128" s="30"/>
       <c r="H128" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I128" s="31"/>
       <c r="J128" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K128" s="27">
         <v>0</v>
@@ -4695,22 +4763,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="33" t="s">
+      <c r="B129" s="49"/>
+      <c r="C129" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D129" s="33"/>
+      <c r="D129" s="20"/>
       <c r="E129" s="28"/>
       <c r="F129" s="29"/>
       <c r="G129" s="30"/>
       <c r="H129" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I129" s="31"/>
       <c r="J129" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K129" s="27">
         <v>0</v>
@@ -4728,22 +4796,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="33" t="s">
+      <c r="B130" s="50"/>
+      <c r="C130" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="33"/>
+      <c r="D130" s="20"/>
       <c r="E130" s="28"/>
       <c r="F130" s="29"/>
       <c r="G130" s="30"/>
       <c r="H130" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I130" s="31"/>
       <c r="J130" s="27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="K130" s="27">
         <v>0</v>
@@ -4761,19 +4829,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12"/>
-      <c r="B131" s="37">
+      <c r="B131" s="48">
         <v>26</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D131" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="E131" s="15"/>
       <c r="F131" s="16"/>
       <c r="G131" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
@@ -4784,9 +4854,9 @@
       <c r="N131" s="18"/>
       <c r="O131" s="18"/>
     </row>
-    <row r="132" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="19"/>
-      <c r="B132" s="38"/>
+      <c r="B132" s="49"/>
       <c r="C132" s="33" t="s">
         <v>20</v>
       </c>
@@ -4817,9 +4887,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19"/>
-      <c r="B133" s="38"/>
+      <c r="B133" s="49"/>
       <c r="C133" s="33" t="s">
         <v>23</v>
       </c>
@@ -4850,9 +4920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19"/>
-      <c r="B134" s="38"/>
+      <c r="B134" s="49"/>
       <c r="C134" s="33" t="s">
         <v>24</v>
       </c>
@@ -4883,9 +4953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19"/>
-      <c r="B135" s="39"/>
+      <c r="B135" s="50"/>
       <c r="C135" s="33" t="s">
         <v>25</v>
       </c>
@@ -4916,19 +4986,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12"/>
-      <c r="B136" s="37">
+      <c r="B136" s="48">
         <v>27</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="15"/>
       <c r="F136" s="16"/>
       <c r="G136" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
@@ -4939,9 +5009,9 @@
       <c r="N136" s="18"/>
       <c r="O136" s="18"/>
     </row>
-    <row r="137" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19"/>
-      <c r="B137" s="38"/>
+      <c r="B137" s="49"/>
       <c r="C137" s="33" t="s">
         <v>20</v>
       </c>
@@ -4972,9 +5042,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="19"/>
-      <c r="B138" s="38"/>
+      <c r="B138" s="49"/>
       <c r="C138" s="33" t="s">
         <v>23</v>
       </c>
@@ -5005,9 +5075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19"/>
-      <c r="B139" s="38"/>
+      <c r="B139" s="49"/>
       <c r="C139" s="33" t="s">
         <v>24</v>
       </c>
@@ -5038,9 +5108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="19"/>
-      <c r="B140" s="39"/>
+      <c r="B140" s="50"/>
       <c r="C140" s="33" t="s">
         <v>25</v>
       </c>
@@ -5071,545 +5141,937 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="19"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="34"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="35"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
-      <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
-      <c r="O141" s="12"/>
-      <c r="P141" s="12"/>
-    </row>
-    <row r="142" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="12"/>
+      <c r="B141" s="48">
+        <v>28</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="14"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="32"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+      <c r="O141" s="18"/>
+    </row>
+    <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="19"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="34"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="35"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="12"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
-      <c r="O142" s="12"/>
-      <c r="P142" s="12"/>
-    </row>
-    <row r="143" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="49"/>
+      <c r="C142" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="33"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I142" s="31"/>
+      <c r="J142" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K142" s="27">
+        <v>20</v>
+      </c>
+      <c r="L142" s="27">
+        <v>0</v>
+      </c>
+      <c r="M142" s="27">
+        <v>0</v>
+      </c>
+      <c r="N142" s="27">
+        <v>0</v>
+      </c>
+      <c r="O142" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="34"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="35"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
-      <c r="O143" s="12"/>
-      <c r="P143" s="12"/>
-    </row>
-    <row r="144" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="49"/>
+      <c r="C143" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" s="33"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I143" s="31"/>
+      <c r="J143" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143" s="27">
+        <v>0</v>
+      </c>
+      <c r="L143" s="27">
+        <v>30</v>
+      </c>
+      <c r="M143" s="27">
+        <v>0</v>
+      </c>
+      <c r="N143" s="27">
+        <v>0</v>
+      </c>
+      <c r="O143" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="19"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="34"/>
-      <c r="F144" s="34"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
-      <c r="J144" s="35"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
-      <c r="M144" s="12"/>
-      <c r="N144" s="12"/>
-      <c r="O144" s="12"/>
-      <c r="P144" s="12"/>
-    </row>
-    <row r="145" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="49"/>
+      <c r="C144" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="33"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I144" s="31"/>
+      <c r="J144" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144" s="27">
+        <v>0</v>
+      </c>
+      <c r="L144" s="27">
+        <v>0</v>
+      </c>
+      <c r="M144" s="27">
+        <v>0</v>
+      </c>
+      <c r="N144" s="27">
+        <v>0</v>
+      </c>
+      <c r="O144" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="35"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="12"/>
-      <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
-      <c r="O145" s="12"/>
-      <c r="P145" s="12"/>
-    </row>
-    <row r="146" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="19"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="34"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="35"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
-      <c r="O146" s="12"/>
-      <c r="P146" s="12"/>
-    </row>
-    <row r="147" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="50"/>
+      <c r="C145" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="33"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I145" s="31"/>
+      <c r="J145" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145" s="27">
+        <v>0</v>
+      </c>
+      <c r="L145" s="27">
+        <v>0</v>
+      </c>
+      <c r="M145" s="27">
+        <v>0</v>
+      </c>
+      <c r="N145" s="27">
+        <v>0</v>
+      </c>
+      <c r="O145" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="12"/>
+      <c r="B146" s="48">
+        <v>29</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" s="14"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="32"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="18"/>
+      <c r="N146" s="18"/>
+      <c r="O146" s="18"/>
+    </row>
+    <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="19"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="34"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="35"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="12"/>
-      <c r="N147" s="12"/>
-      <c r="O147" s="12"/>
-      <c r="P147" s="12"/>
-    </row>
-    <row r="148" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="49"/>
+      <c r="C147" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="33"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I147" s="31"/>
+      <c r="J147" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K147" s="27">
+        <v>0</v>
+      </c>
+      <c r="L147" s="27">
+        <v>0</v>
+      </c>
+      <c r="M147" s="27">
+        <v>0</v>
+      </c>
+      <c r="N147" s="27">
+        <v>0</v>
+      </c>
+      <c r="O147" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="19"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="34"/>
-      <c r="F148" s="34"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="35"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
-      <c r="M148" s="12"/>
-      <c r="N148" s="12"/>
-      <c r="O148" s="12"/>
-      <c r="P148" s="12"/>
-    </row>
-    <row r="149" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="49"/>
+      <c r="C148" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" s="33"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I148" s="31"/>
+      <c r="J148" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K148" s="27">
+        <v>0</v>
+      </c>
+      <c r="L148" s="27">
+        <v>0</v>
+      </c>
+      <c r="M148" s="27">
+        <v>0</v>
+      </c>
+      <c r="N148" s="27">
+        <v>0</v>
+      </c>
+      <c r="O148" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="35"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="12"/>
-      <c r="M149" s="12"/>
-      <c r="N149" s="12"/>
-      <c r="O149" s="12"/>
-      <c r="P149" s="12"/>
-    </row>
-    <row r="150" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="49"/>
+      <c r="C149" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" s="33"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I149" s="31"/>
+      <c r="J149" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K149" s="27">
+        <v>0</v>
+      </c>
+      <c r="L149" s="27">
+        <v>0</v>
+      </c>
+      <c r="M149" s="27">
+        <v>0</v>
+      </c>
+      <c r="N149" s="27">
+        <v>0</v>
+      </c>
+      <c r="O149" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="19"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="35"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
-      <c r="M150" s="12"/>
-      <c r="N150" s="12"/>
-      <c r="O150" s="12"/>
-      <c r="P150" s="12"/>
-    </row>
-    <row r="151" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="19"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="34"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="35"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
-      <c r="M151" s="12"/>
-      <c r="N151" s="12"/>
-      <c r="O151" s="12"/>
-      <c r="P151" s="12"/>
-    </row>
-    <row r="152" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="50"/>
+      <c r="C150" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="33"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I150" s="31"/>
+      <c r="J150" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" s="27">
+        <v>0</v>
+      </c>
+      <c r="L150" s="27">
+        <v>0</v>
+      </c>
+      <c r="M150" s="27">
+        <v>0</v>
+      </c>
+      <c r="N150" s="27">
+        <v>0</v>
+      </c>
+      <c r="O150" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="12"/>
+      <c r="B151" s="48">
+        <v>30</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" s="15"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="32"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="18"/>
+      <c r="O151" s="18"/>
+    </row>
+    <row r="152" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="19"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="35"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
-      <c r="M152" s="12"/>
-      <c r="N152" s="12"/>
-      <c r="O152" s="12"/>
-      <c r="P152" s="12"/>
-    </row>
-    <row r="153" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="49"/>
+      <c r="C152" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="33"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I152" s="31"/>
+      <c r="J152" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K152" s="27">
+        <v>0</v>
+      </c>
+      <c r="L152" s="27">
+        <v>0</v>
+      </c>
+      <c r="M152" s="27">
+        <v>0</v>
+      </c>
+      <c r="N152" s="27">
+        <v>0</v>
+      </c>
+      <c r="O152" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="19"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="35"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="12"/>
-      <c r="M153" s="12"/>
-      <c r="N153" s="12"/>
-      <c r="O153" s="12"/>
-      <c r="P153" s="12"/>
-    </row>
-    <row r="154" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="49"/>
+      <c r="C153" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" s="33"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I153" s="31"/>
+      <c r="J153" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K153" s="27">
+        <v>0</v>
+      </c>
+      <c r="L153" s="27">
+        <v>0</v>
+      </c>
+      <c r="M153" s="27">
+        <v>0</v>
+      </c>
+      <c r="N153" s="27">
+        <v>0</v>
+      </c>
+      <c r="O153" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="19"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="34"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="35"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="12"/>
-      <c r="M154" s="12"/>
-      <c r="N154" s="12"/>
-      <c r="O154" s="12"/>
-      <c r="P154" s="12"/>
-    </row>
-    <row r="155" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="49"/>
+      <c r="C154" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" s="33"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I154" s="31"/>
+      <c r="J154" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K154" s="27">
+        <v>0</v>
+      </c>
+      <c r="L154" s="27">
+        <v>0</v>
+      </c>
+      <c r="M154" s="27">
+        <v>0</v>
+      </c>
+      <c r="N154" s="27">
+        <v>0</v>
+      </c>
+      <c r="O154" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="34"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="35"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-      <c r="M155" s="12"/>
-      <c r="N155" s="12"/>
-      <c r="O155" s="12"/>
-      <c r="P155" s="12"/>
-    </row>
-    <row r="156" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="19"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="34"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="35"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
-      <c r="M156" s="12"/>
-      <c r="N156" s="12"/>
-      <c r="O156" s="12"/>
-      <c r="P156" s="12"/>
-    </row>
-    <row r="157" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="50"/>
+      <c r="C155" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="33"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I155" s="31"/>
+      <c r="J155" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K155" s="27">
+        <v>0</v>
+      </c>
+      <c r="L155" s="27">
+        <v>0</v>
+      </c>
+      <c r="M155" s="27">
+        <v>0</v>
+      </c>
+      <c r="N155" s="27">
+        <v>0</v>
+      </c>
+      <c r="O155" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="12"/>
+      <c r="B156" s="48">
+        <v>31</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D156" s="14"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="32"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="18"/>
+      <c r="M156" s="18"/>
+      <c r="N156" s="18"/>
+      <c r="O156" s="18"/>
+    </row>
+    <row r="157" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="19"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="34"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="35"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
-      <c r="M157" s="12"/>
-      <c r="N157" s="12"/>
-      <c r="O157" s="12"/>
-      <c r="P157" s="12"/>
-    </row>
-    <row r="158" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="49"/>
+      <c r="C157" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="33"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I157" s="31"/>
+      <c r="J157" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K157" s="27">
+        <v>0</v>
+      </c>
+      <c r="L157" s="27">
+        <v>0</v>
+      </c>
+      <c r="M157" s="27">
+        <v>0</v>
+      </c>
+      <c r="N157" s="27">
+        <v>0</v>
+      </c>
+      <c r="O157" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="19"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="34"/>
-      <c r="F158" s="34"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="35"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="12"/>
-      <c r="M158" s="12"/>
-      <c r="N158" s="12"/>
-      <c r="O158" s="12"/>
-      <c r="P158" s="12"/>
-    </row>
-    <row r="159" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="49"/>
+      <c r="C158" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" s="33"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I158" s="31"/>
+      <c r="J158" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K158" s="27">
+        <v>0</v>
+      </c>
+      <c r="L158" s="27">
+        <v>0</v>
+      </c>
+      <c r="M158" s="27">
+        <v>0</v>
+      </c>
+      <c r="N158" s="27">
+        <v>0</v>
+      </c>
+      <c r="O158" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="34"/>
-      <c r="F159" s="34"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="35"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
-      <c r="M159" s="12"/>
-      <c r="N159" s="12"/>
-      <c r="O159" s="12"/>
-      <c r="P159" s="12"/>
-    </row>
-    <row r="160" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="49"/>
+      <c r="C159" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159" s="33"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I159" s="31"/>
+      <c r="J159" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K159" s="27">
+        <v>0</v>
+      </c>
+      <c r="L159" s="27">
+        <v>0</v>
+      </c>
+      <c r="M159" s="27">
+        <v>0</v>
+      </c>
+      <c r="N159" s="27">
+        <v>0</v>
+      </c>
+      <c r="O159" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="19"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="34"/>
-      <c r="F160" s="34"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
-      <c r="J160" s="35"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="12"/>
-      <c r="M160" s="12"/>
-      <c r="N160" s="12"/>
-      <c r="O160" s="12"/>
-      <c r="P160" s="12"/>
-    </row>
-    <row r="161" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="19"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="34"/>
-      <c r="F161" s="34"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="35"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="12"/>
-      <c r="M161" s="12"/>
-      <c r="N161" s="12"/>
-      <c r="O161" s="12"/>
-      <c r="P161" s="12"/>
+      <c r="B160" s="50"/>
+      <c r="C160" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" s="33"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I160" s="31"/>
+      <c r="J160" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K160" s="27">
+        <v>0</v>
+      </c>
+      <c r="L160" s="27">
+        <v>0</v>
+      </c>
+      <c r="M160" s="27">
+        <v>0</v>
+      </c>
+      <c r="N160" s="27">
+        <v>0</v>
+      </c>
+      <c r="O160" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="12"/>
+      <c r="B161" s="48">
+        <v>32</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" s="14"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="32"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18"/>
+      <c r="M161" s="18"/>
+      <c r="N161" s="18"/>
+      <c r="O161" s="18"/>
     </row>
     <row r="162" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="19"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="34"/>
-      <c r="F162" s="34"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="35"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
-      <c r="M162" s="12"/>
-      <c r="N162" s="12"/>
-      <c r="O162" s="12"/>
-      <c r="P162" s="12"/>
+      <c r="B162" s="49"/>
+      <c r="C162" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="33"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="29"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I162" s="31"/>
+      <c r="J162" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K162" s="27">
+        <v>0</v>
+      </c>
+      <c r="L162" s="27">
+        <v>0</v>
+      </c>
+      <c r="M162" s="27">
+        <v>0</v>
+      </c>
+      <c r="N162" s="27">
+        <v>0</v>
+      </c>
+      <c r="O162" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="19"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="34"/>
-      <c r="F163" s="34"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="35"/>
-      <c r="K163" s="12"/>
-      <c r="L163" s="12"/>
-      <c r="M163" s="12"/>
-      <c r="N163" s="12"/>
-      <c r="O163" s="12"/>
-      <c r="P163" s="12"/>
+      <c r="B163" s="49"/>
+      <c r="C163" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163" s="33"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I163" s="31"/>
+      <c r="J163" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K163" s="27">
+        <v>0</v>
+      </c>
+      <c r="L163" s="27">
+        <v>0</v>
+      </c>
+      <c r="M163" s="27">
+        <v>0</v>
+      </c>
+      <c r="N163" s="27">
+        <v>0</v>
+      </c>
+      <c r="O163" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="19"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="34"/>
-      <c r="F164" s="34"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
-      <c r="J164" s="35"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="12"/>
-      <c r="M164" s="12"/>
-      <c r="N164" s="12"/>
-      <c r="O164" s="12"/>
-      <c r="P164" s="12"/>
+      <c r="B164" s="49"/>
+      <c r="C164" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="33"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I164" s="31"/>
+      <c r="J164" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K164" s="27">
+        <v>0</v>
+      </c>
+      <c r="L164" s="27">
+        <v>0</v>
+      </c>
+      <c r="M164" s="27">
+        <v>0</v>
+      </c>
+      <c r="N164" s="27">
+        <v>0</v>
+      </c>
+      <c r="O164" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="19"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="34"/>
-      <c r="F165" s="34"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="12"/>
-      <c r="J165" s="35"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="12"/>
-      <c r="M165" s="12"/>
-      <c r="N165" s="12"/>
-      <c r="O165" s="12"/>
-      <c r="P165" s="12"/>
-    </row>
-    <row r="166" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="19"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="34"/>
-      <c r="F166" s="34"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="12"/>
-      <c r="J166" s="35"/>
-      <c r="K166" s="12"/>
-      <c r="L166" s="12"/>
-      <c r="M166" s="12"/>
-      <c r="N166" s="12"/>
-      <c r="O166" s="12"/>
-      <c r="P166" s="12"/>
+      <c r="B165" s="50"/>
+      <c r="C165" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="33"/>
+      <c r="E165" s="28"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I165" s="31"/>
+      <c r="J165" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K165" s="27">
+        <v>0</v>
+      </c>
+      <c r="L165" s="27">
+        <v>0</v>
+      </c>
+      <c r="M165" s="27">
+        <v>0</v>
+      </c>
+      <c r="N165" s="27">
+        <v>0</v>
+      </c>
+      <c r="O165" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="12"/>
+      <c r="B166" s="48">
+        <v>33</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D166" s="14"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="32"/>
+      <c r="K166" s="18"/>
+      <c r="L166" s="18"/>
+      <c r="M166" s="18"/>
+      <c r="N166" s="18"/>
+      <c r="O166" s="18"/>
     </row>
     <row r="167" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="19"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="34"/>
-      <c r="F167" s="34"/>
-      <c r="G167" s="12"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="12"/>
-      <c r="J167" s="35"/>
-      <c r="K167" s="12"/>
-      <c r="L167" s="12"/>
-      <c r="M167" s="12"/>
-      <c r="N167" s="12"/>
-      <c r="O167" s="12"/>
-      <c r="P167" s="12"/>
+      <c r="B167" s="49"/>
+      <c r="C167" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="33"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I167" s="31"/>
+      <c r="J167" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K167" s="27">
+        <v>0</v>
+      </c>
+      <c r="L167" s="27">
+        <v>0</v>
+      </c>
+      <c r="M167" s="27">
+        <v>0</v>
+      </c>
+      <c r="N167" s="27">
+        <v>0</v>
+      </c>
+      <c r="O167" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="34"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="35"/>
-      <c r="K168" s="12"/>
-      <c r="L168" s="12"/>
-      <c r="M168" s="12"/>
-      <c r="N168" s="12"/>
-      <c r="O168" s="12"/>
-      <c r="P168" s="12"/>
+      <c r="B168" s="49"/>
+      <c r="C168" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" s="33"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I168" s="31"/>
+      <c r="J168" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K168" s="27">
+        <v>0</v>
+      </c>
+      <c r="L168" s="27">
+        <v>0</v>
+      </c>
+      <c r="M168" s="27">
+        <v>0</v>
+      </c>
+      <c r="N168" s="27">
+        <v>0</v>
+      </c>
+      <c r="O168" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="19"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="34"/>
-      <c r="F169" s="34"/>
-      <c r="G169" s="12"/>
-      <c r="H169" s="12"/>
-      <c r="I169" s="12"/>
-      <c r="J169" s="35"/>
-      <c r="K169" s="12"/>
-      <c r="L169" s="12"/>
-      <c r="M169" s="12"/>
-      <c r="N169" s="12"/>
-      <c r="O169" s="12"/>
-      <c r="P169" s="12"/>
+      <c r="B169" s="49"/>
+      <c r="C169" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" s="33"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I169" s="31"/>
+      <c r="J169" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K169" s="27">
+        <v>0</v>
+      </c>
+      <c r="L169" s="27">
+        <v>0</v>
+      </c>
+      <c r="M169" s="27">
+        <v>0</v>
+      </c>
+      <c r="N169" s="27">
+        <v>0</v>
+      </c>
+      <c r="O169" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="19"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="34"/>
-      <c r="F170" s="34"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="12"/>
-      <c r="I170" s="12"/>
-      <c r="J170" s="35"/>
-      <c r="K170" s="12"/>
-      <c r="L170" s="12"/>
-      <c r="M170" s="12"/>
-      <c r="N170" s="12"/>
-      <c r="O170" s="12"/>
-      <c r="P170" s="12"/>
+      <c r="B170" s="50"/>
+      <c r="C170" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="33"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="30"/>
+      <c r="H170" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I170" s="31"/>
+      <c r="J170" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K170" s="27">
+        <v>0</v>
+      </c>
+      <c r="L170" s="27">
+        <v>0</v>
+      </c>
+      <c r="M170" s="27">
+        <v>0</v>
+      </c>
+      <c r="N170" s="27">
+        <v>0</v>
+      </c>
+      <c r="O170" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="19"/>
@@ -8131,48 +8593,558 @@
       <c r="O310" s="12"/>
       <c r="P310" s="12"/>
     </row>
-    <row r="311" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="19"/>
+      <c r="B311" s="12"/>
+      <c r="C311" s="12"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="34"/>
+      <c r="F311" s="34"/>
+      <c r="G311" s="12"/>
+      <c r="H311" s="12"/>
+      <c r="I311" s="12"/>
+      <c r="J311" s="35"/>
+      <c r="K311" s="12"/>
+      <c r="L311" s="12"/>
+      <c r="M311" s="12"/>
+      <c r="N311" s="12"/>
+      <c r="O311" s="12"/>
+      <c r="P311" s="12"/>
+    </row>
+    <row r="312" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="19"/>
+      <c r="B312" s="12"/>
+      <c r="C312" s="12"/>
+      <c r="D312" s="12"/>
+      <c r="E312" s="34"/>
+      <c r="F312" s="34"/>
+      <c r="G312" s="12"/>
+      <c r="H312" s="12"/>
+      <c r="I312" s="12"/>
+      <c r="J312" s="35"/>
+      <c r="K312" s="12"/>
+      <c r="L312" s="12"/>
+      <c r="M312" s="12"/>
+      <c r="N312" s="12"/>
+      <c r="O312" s="12"/>
+      <c r="P312" s="12"/>
+    </row>
+    <row r="313" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="19"/>
+      <c r="B313" s="12"/>
+      <c r="C313" s="12"/>
+      <c r="D313" s="12"/>
+      <c r="E313" s="34"/>
+      <c r="F313" s="34"/>
+      <c r="G313" s="12"/>
+      <c r="H313" s="12"/>
+      <c r="I313" s="12"/>
+      <c r="J313" s="35"/>
+      <c r="K313" s="12"/>
+      <c r="L313" s="12"/>
+      <c r="M313" s="12"/>
+      <c r="N313" s="12"/>
+      <c r="O313" s="12"/>
+      <c r="P313" s="12"/>
+    </row>
+    <row r="314" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="19"/>
+      <c r="B314" s="12"/>
+      <c r="C314" s="12"/>
+      <c r="D314" s="12"/>
+      <c r="E314" s="34"/>
+      <c r="F314" s="34"/>
+      <c r="G314" s="12"/>
+      <c r="H314" s="12"/>
+      <c r="I314" s="12"/>
+      <c r="J314" s="35"/>
+      <c r="K314" s="12"/>
+      <c r="L314" s="12"/>
+      <c r="M314" s="12"/>
+      <c r="N314" s="12"/>
+      <c r="O314" s="12"/>
+      <c r="P314" s="12"/>
+    </row>
+    <row r="315" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="19"/>
+      <c r="B315" s="12"/>
+      <c r="C315" s="12"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="34"/>
+      <c r="F315" s="34"/>
+      <c r="G315" s="12"/>
+      <c r="H315" s="12"/>
+      <c r="I315" s="12"/>
+      <c r="J315" s="35"/>
+      <c r="K315" s="12"/>
+      <c r="L315" s="12"/>
+      <c r="M315" s="12"/>
+      <c r="N315" s="12"/>
+      <c r="O315" s="12"/>
+      <c r="P315" s="12"/>
+    </row>
+    <row r="316" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="19"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="12"/>
+      <c r="D316" s="12"/>
+      <c r="E316" s="34"/>
+      <c r="F316" s="34"/>
+      <c r="G316" s="12"/>
+      <c r="H316" s="12"/>
+      <c r="I316" s="12"/>
+      <c r="J316" s="35"/>
+      <c r="K316" s="12"/>
+      <c r="L316" s="12"/>
+      <c r="M316" s="12"/>
+      <c r="N316" s="12"/>
+      <c r="O316" s="12"/>
+      <c r="P316" s="12"/>
+    </row>
+    <row r="317" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="19"/>
+      <c r="B317" s="12"/>
+      <c r="C317" s="12"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="34"/>
+      <c r="F317" s="34"/>
+      <c r="G317" s="12"/>
+      <c r="H317" s="12"/>
+      <c r="I317" s="12"/>
+      <c r="J317" s="35"/>
+      <c r="K317" s="12"/>
+      <c r="L317" s="12"/>
+      <c r="M317" s="12"/>
+      <c r="N317" s="12"/>
+      <c r="O317" s="12"/>
+      <c r="P317" s="12"/>
+    </row>
+    <row r="318" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="19"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="34"/>
+      <c r="F318" s="34"/>
+      <c r="G318" s="12"/>
+      <c r="H318" s="12"/>
+      <c r="I318" s="12"/>
+      <c r="J318" s="35"/>
+      <c r="K318" s="12"/>
+      <c r="L318" s="12"/>
+      <c r="M318" s="12"/>
+      <c r="N318" s="12"/>
+      <c r="O318" s="12"/>
+      <c r="P318" s="12"/>
+    </row>
+    <row r="319" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="19"/>
+      <c r="B319" s="12"/>
+      <c r="C319" s="12"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="34"/>
+      <c r="F319" s="34"/>
+      <c r="G319" s="12"/>
+      <c r="H319" s="12"/>
+      <c r="I319" s="12"/>
+      <c r="J319" s="35"/>
+      <c r="K319" s="12"/>
+      <c r="L319" s="12"/>
+      <c r="M319" s="12"/>
+      <c r="N319" s="12"/>
+      <c r="O319" s="12"/>
+      <c r="P319" s="12"/>
+    </row>
+    <row r="320" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="19"/>
+      <c r="B320" s="12"/>
+      <c r="C320" s="12"/>
+      <c r="D320" s="12"/>
+      <c r="E320" s="34"/>
+      <c r="F320" s="34"/>
+      <c r="G320" s="12"/>
+      <c r="H320" s="12"/>
+      <c r="I320" s="12"/>
+      <c r="J320" s="35"/>
+      <c r="K320" s="12"/>
+      <c r="L320" s="12"/>
+      <c r="M320" s="12"/>
+      <c r="N320" s="12"/>
+      <c r="O320" s="12"/>
+      <c r="P320" s="12"/>
+    </row>
+    <row r="321" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="19"/>
+      <c r="B321" s="12"/>
+      <c r="C321" s="12"/>
+      <c r="D321" s="12"/>
+      <c r="E321" s="34"/>
+      <c r="F321" s="34"/>
+      <c r="G321" s="12"/>
+      <c r="H321" s="12"/>
+      <c r="I321" s="12"/>
+      <c r="J321" s="35"/>
+      <c r="K321" s="12"/>
+      <c r="L321" s="12"/>
+      <c r="M321" s="12"/>
+      <c r="N321" s="12"/>
+      <c r="O321" s="12"/>
+      <c r="P321" s="12"/>
+    </row>
+    <row r="322" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="19"/>
+      <c r="B322" s="12"/>
+      <c r="C322" s="12"/>
+      <c r="D322" s="12"/>
+      <c r="E322" s="34"/>
+      <c r="F322" s="34"/>
+      <c r="G322" s="12"/>
+      <c r="H322" s="12"/>
+      <c r="I322" s="12"/>
+      <c r="J322" s="35"/>
+      <c r="K322" s="12"/>
+      <c r="L322" s="12"/>
+      <c r="M322" s="12"/>
+      <c r="N322" s="12"/>
+      <c r="O322" s="12"/>
+      <c r="P322" s="12"/>
+    </row>
+    <row r="323" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="19"/>
+      <c r="B323" s="12"/>
+      <c r="C323" s="12"/>
+      <c r="D323" s="12"/>
+      <c r="E323" s="34"/>
+      <c r="F323" s="34"/>
+      <c r="G323" s="12"/>
+      <c r="H323" s="12"/>
+      <c r="I323" s="12"/>
+      <c r="J323" s="35"/>
+      <c r="K323" s="12"/>
+      <c r="L323" s="12"/>
+      <c r="M323" s="12"/>
+      <c r="N323" s="12"/>
+      <c r="O323" s="12"/>
+      <c r="P323" s="12"/>
+    </row>
+    <row r="324" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="19"/>
+      <c r="B324" s="12"/>
+      <c r="C324" s="12"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="34"/>
+      <c r="F324" s="34"/>
+      <c r="G324" s="12"/>
+      <c r="H324" s="12"/>
+      <c r="I324" s="12"/>
+      <c r="J324" s="35"/>
+      <c r="K324" s="12"/>
+      <c r="L324" s="12"/>
+      <c r="M324" s="12"/>
+      <c r="N324" s="12"/>
+      <c r="O324" s="12"/>
+      <c r="P324" s="12"/>
+    </row>
+    <row r="325" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="19"/>
+      <c r="B325" s="12"/>
+      <c r="C325" s="12"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="34"/>
+      <c r="F325" s="34"/>
+      <c r="G325" s="12"/>
+      <c r="H325" s="12"/>
+      <c r="I325" s="12"/>
+      <c r="J325" s="35"/>
+      <c r="K325" s="12"/>
+      <c r="L325" s="12"/>
+      <c r="M325" s="12"/>
+      <c r="N325" s="12"/>
+      <c r="O325" s="12"/>
+      <c r="P325" s="12"/>
+    </row>
+    <row r="326" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="19"/>
+      <c r="B326" s="12"/>
+      <c r="C326" s="12"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="34"/>
+      <c r="F326" s="34"/>
+      <c r="G326" s="12"/>
+      <c r="H326" s="12"/>
+      <c r="I326" s="12"/>
+      <c r="J326" s="35"/>
+      <c r="K326" s="12"/>
+      <c r="L326" s="12"/>
+      <c r="M326" s="12"/>
+      <c r="N326" s="12"/>
+      <c r="O326" s="12"/>
+      <c r="P326" s="12"/>
+    </row>
+    <row r="327" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="19"/>
+      <c r="B327" s="12"/>
+      <c r="C327" s="12"/>
+      <c r="D327" s="12"/>
+      <c r="E327" s="34"/>
+      <c r="F327" s="34"/>
+      <c r="G327" s="12"/>
+      <c r="H327" s="12"/>
+      <c r="I327" s="12"/>
+      <c r="J327" s="35"/>
+      <c r="K327" s="12"/>
+      <c r="L327" s="12"/>
+      <c r="M327" s="12"/>
+      <c r="N327" s="12"/>
+      <c r="O327" s="12"/>
+      <c r="P327" s="12"/>
+    </row>
+    <row r="328" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="19"/>
+      <c r="B328" s="12"/>
+      <c r="C328" s="12"/>
+      <c r="D328" s="12"/>
+      <c r="E328" s="34"/>
+      <c r="F328" s="34"/>
+      <c r="G328" s="12"/>
+      <c r="H328" s="12"/>
+      <c r="I328" s="12"/>
+      <c r="J328" s="35"/>
+      <c r="K328" s="12"/>
+      <c r="L328" s="12"/>
+      <c r="M328" s="12"/>
+      <c r="N328" s="12"/>
+      <c r="O328" s="12"/>
+      <c r="P328" s="12"/>
+    </row>
+    <row r="329" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="19"/>
+      <c r="B329" s="12"/>
+      <c r="C329" s="12"/>
+      <c r="D329" s="12"/>
+      <c r="E329" s="34"/>
+      <c r="F329" s="34"/>
+      <c r="G329" s="12"/>
+      <c r="H329" s="12"/>
+      <c r="I329" s="12"/>
+      <c r="J329" s="35"/>
+      <c r="K329" s="12"/>
+      <c r="L329" s="12"/>
+      <c r="M329" s="12"/>
+      <c r="N329" s="12"/>
+      <c r="O329" s="12"/>
+      <c r="P329" s="12"/>
+    </row>
+    <row r="330" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="19"/>
+      <c r="B330" s="12"/>
+      <c r="C330" s="12"/>
+      <c r="D330" s="12"/>
+      <c r="E330" s="34"/>
+      <c r="F330" s="34"/>
+      <c r="G330" s="12"/>
+      <c r="H330" s="12"/>
+      <c r="I330" s="12"/>
+      <c r="J330" s="35"/>
+      <c r="K330" s="12"/>
+      <c r="L330" s="12"/>
+      <c r="M330" s="12"/>
+      <c r="N330" s="12"/>
+      <c r="O330" s="12"/>
+      <c r="P330" s="12"/>
+    </row>
+    <row r="331" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="19"/>
+      <c r="B331" s="12"/>
+      <c r="C331" s="12"/>
+      <c r="D331" s="12"/>
+      <c r="E331" s="34"/>
+      <c r="F331" s="34"/>
+      <c r="G331" s="12"/>
+      <c r="H331" s="12"/>
+      <c r="I331" s="12"/>
+      <c r="J331" s="35"/>
+      <c r="K331" s="12"/>
+      <c r="L331" s="12"/>
+      <c r="M331" s="12"/>
+      <c r="N331" s="12"/>
+      <c r="O331" s="12"/>
+      <c r="P331" s="12"/>
+    </row>
+    <row r="332" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="19"/>
+      <c r="B332" s="12"/>
+      <c r="C332" s="12"/>
+      <c r="D332" s="12"/>
+      <c r="E332" s="34"/>
+      <c r="F332" s="34"/>
+      <c r="G332" s="12"/>
+      <c r="H332" s="12"/>
+      <c r="I332" s="12"/>
+      <c r="J332" s="35"/>
+      <c r="K332" s="12"/>
+      <c r="L332" s="12"/>
+      <c r="M332" s="12"/>
+      <c r="N332" s="12"/>
+      <c r="O332" s="12"/>
+      <c r="P332" s="12"/>
+    </row>
+    <row r="333" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="19"/>
+      <c r="B333" s="12"/>
+      <c r="C333" s="12"/>
+      <c r="D333" s="12"/>
+      <c r="E333" s="34"/>
+      <c r="F333" s="34"/>
+      <c r="G333" s="12"/>
+      <c r="H333" s="12"/>
+      <c r="I333" s="12"/>
+      <c r="J333" s="35"/>
+      <c r="K333" s="12"/>
+      <c r="L333" s="12"/>
+      <c r="M333" s="12"/>
+      <c r="N333" s="12"/>
+      <c r="O333" s="12"/>
+      <c r="P333" s="12"/>
+    </row>
+    <row r="334" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="19"/>
+      <c r="B334" s="12"/>
+      <c r="C334" s="12"/>
+      <c r="D334" s="12"/>
+      <c r="E334" s="34"/>
+      <c r="F334" s="34"/>
+      <c r="G334" s="12"/>
+      <c r="H334" s="12"/>
+      <c r="I334" s="12"/>
+      <c r="J334" s="35"/>
+      <c r="K334" s="12"/>
+      <c r="L334" s="12"/>
+      <c r="M334" s="12"/>
+      <c r="N334" s="12"/>
+      <c r="O334" s="12"/>
+      <c r="P334" s="12"/>
+    </row>
+    <row r="335" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="19"/>
+      <c r="B335" s="12"/>
+      <c r="C335" s="12"/>
+      <c r="D335" s="12"/>
+      <c r="E335" s="34"/>
+      <c r="F335" s="34"/>
+      <c r="G335" s="12"/>
+      <c r="H335" s="12"/>
+      <c r="I335" s="12"/>
+      <c r="J335" s="35"/>
+      <c r="K335" s="12"/>
+      <c r="L335" s="12"/>
+      <c r="M335" s="12"/>
+      <c r="N335" s="12"/>
+      <c r="O335" s="12"/>
+      <c r="P335" s="12"/>
+    </row>
+    <row r="336" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="19"/>
+      <c r="B336" s="12"/>
+      <c r="C336" s="12"/>
+      <c r="D336" s="12"/>
+      <c r="E336" s="34"/>
+      <c r="F336" s="34"/>
+      <c r="G336" s="12"/>
+      <c r="H336" s="12"/>
+      <c r="I336" s="12"/>
+      <c r="J336" s="35"/>
+      <c r="K336" s="12"/>
+      <c r="L336" s="12"/>
+      <c r="M336" s="12"/>
+      <c r="N336" s="12"/>
+      <c r="O336" s="12"/>
+      <c r="P336" s="12"/>
+    </row>
+    <row r="337" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="19"/>
+      <c r="B337" s="12"/>
+      <c r="C337" s="12"/>
+      <c r="D337" s="12"/>
+      <c r="E337" s="34"/>
+      <c r="F337" s="34"/>
+      <c r="G337" s="12"/>
+      <c r="H337" s="12"/>
+      <c r="I337" s="12"/>
+      <c r="J337" s="35"/>
+      <c r="K337" s="12"/>
+      <c r="L337" s="12"/>
+      <c r="M337" s="12"/>
+      <c r="N337" s="12"/>
+      <c r="O337" s="12"/>
+      <c r="P337" s="12"/>
+    </row>
+    <row r="338" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="19"/>
+      <c r="B338" s="12"/>
+      <c r="C338" s="12"/>
+      <c r="D338" s="12"/>
+      <c r="E338" s="34"/>
+      <c r="F338" s="34"/>
+      <c r="G338" s="12"/>
+      <c r="H338" s="12"/>
+      <c r="I338" s="12"/>
+      <c r="J338" s="35"/>
+      <c r="K338" s="12"/>
+      <c r="L338" s="12"/>
+      <c r="M338" s="12"/>
+      <c r="N338" s="12"/>
+      <c r="O338" s="12"/>
+      <c r="P338" s="12"/>
+    </row>
+    <row r="339" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="19"/>
+      <c r="B339" s="12"/>
+      <c r="C339" s="12"/>
+      <c r="D339" s="12"/>
+      <c r="E339" s="34"/>
+      <c r="F339" s="34"/>
+      <c r="G339" s="12"/>
+      <c r="H339" s="12"/>
+      <c r="I339" s="12"/>
+      <c r="J339" s="35"/>
+      <c r="K339" s="12"/>
+      <c r="L339" s="12"/>
+      <c r="M339" s="12"/>
+      <c r="N339" s="12"/>
+      <c r="O339" s="12"/>
+      <c r="P339" s="12"/>
+    </row>
+    <row r="340" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="19"/>
+      <c r="B340" s="12"/>
+      <c r="C340" s="12"/>
+      <c r="D340" s="12"/>
+      <c r="E340" s="34"/>
+      <c r="F340" s="34"/>
+      <c r="G340" s="12"/>
+      <c r="H340" s="12"/>
+      <c r="I340" s="12"/>
+      <c r="J340" s="35"/>
+      <c r="K340" s="12"/>
+      <c r="L340" s="12"/>
+      <c r="M340" s="12"/>
+      <c r="N340" s="12"/>
+      <c r="O340" s="12"/>
+      <c r="P340" s="12"/>
+    </row>
+    <row r="341" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8823,42 +9795,79 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="B81:B85"/>
+  <mergeCells count="33">
+    <mergeCell ref="B96:B100"/>
     <mergeCell ref="B76:B80"/>
     <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="B141:B145"/>
+    <mergeCell ref="B146:B150"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="B81:B85"/>
     <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="B41:B45"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B46:B50"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B166:B170"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="B121:B125"/>
     <mergeCell ref="B126:B130"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B156:B160"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items (To Do, Progress, Blocked, Done, or Cancelled)" sqref="H92:H95 H17:H20 H22:H25 H27:H30 H32:H35 H37:H40 H42:H45 H47:H50 H52:H55 H57:H60 H12:H15 H137:H140 H77:H80 H97:H100 H102:H105 H127:H130 H117:H120 H122:H125 H107:H110 H112:H115 H132:H135 H67:H70 H72:H75 H87:H90 H7:H10 H62:H65 H82:H85" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items (To Do, Progress, Blocked, Done, or Cancelled)" sqref="H117:H120 H107:H110 H17:H20 H22:H25 H92:H100 H47:H50 H52:H55 H57:H60 H62:H65 H72:H75 H12:H15 H167:H170 H102:H105 H122:H125 H127:H130 H87:H90 H142:H145 H147:H150 H132:H135 H137:H140 H162:H165 H67:H70 H157:H160 H112:H115 H7:H10 H77:H80 H27:H30 H82:H85 H152:H155 H32:H35 H37:H40 H42:H45" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"To Do,Progress,Blocked,Done,Cancelled"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fazli\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE5810D-3D8B-40B1-A417-095102314BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09805D7D-99D3-4CAF-86ED-9B3F994B13BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -151,9 +151,6 @@
     <t>As an admin, I want to be able to access the waiters list so I can assign waiters to the reserved tables</t>
   </si>
   <si>
-    <t>As an admin, I want to access waiters attendance so I can see who is present</t>
-  </si>
-  <si>
     <t>As an admin, I want to be able to access the waiters list so I can remove waiters from the system</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
   </si>
   <si>
     <t>As a waiter, I want to be able to login to the system so I can access the system resources</t>
-  </si>
-  <si>
-    <t>As a waiter, I want to be able to check my attendance so the admin can see my attendance</t>
   </si>
   <si>
     <t>As a waiter, I want to be able to see the table I am assigned to so I can serve the guests</t>
@@ -196,9 +190,6 @@
     <t>As a user I want to be able to have meals, desserts, and drinks categories in the menu</t>
   </si>
   <si>
-    <t>As a waiter, I want to be able to access attendance, and reserved tables</t>
-  </si>
-  <si>
     <t>As an admin I want to be able to acess the menu, raw materials list, waiters list, and customers in one window</t>
   </si>
   <si>
@@ -215,6 +206,30 @@
   </si>
   <si>
     <t>As an admin I want to be able to access registered customers  list So, I can delete registered customers</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to access the waiters list so I can update waiters list</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to access the waiters list so I can refresh waiters list after making changes</t>
+  </si>
+  <si>
+    <t>As an admin, I want to access waiters attendance so I mark them present or absent</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to access the waiters list so I can remove waiters from the reserved tables</t>
+  </si>
+  <si>
+    <t>As an admin, I want to access waiters attendance so I can add the date, starting time, and leaving time</t>
+  </si>
+  <si>
+    <t>As a waiter, I want to be able to see my attendance that the admin has checked</t>
+  </si>
+  <si>
+    <t>As a waiter, I want to be able to access attendance, manu, and reserved tables</t>
+  </si>
+  <si>
+    <t>As a waiter, I want to be able to see the menu so I can see which dishes are available everyday</t>
   </si>
 </sst>
 </file>
@@ -518,18 +533,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,10 +766,10 @@
     <tabColor rgb="FF44546A"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q1032"/>
+  <dimension ref="A1:Q1057"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A155" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A161" zoomScale="105" workbookViewId="0">
+      <selection activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -771,7 +786,7 @@
     <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -906,7 +921,7 @@
     </row>
     <row r="6" spans="1:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="48">
+      <c r="B6" s="49">
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -931,7 +946,7 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
@@ -964,7 +979,7 @@
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
@@ -997,7 +1012,7 @@
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
-      <c r="B9" s="49"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="20" t="s">
         <v>24</v>
       </c>
@@ -1030,7 +1045,7 @@
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
-      <c r="B10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
@@ -1063,14 +1078,14 @@
     </row>
     <row r="11" spans="1:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
-      <c r="B11" s="48">
+      <c r="B11" s="49">
         <v>2</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
@@ -1088,7 +1103,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
-      <c r="B12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="33" t="s">
         <v>20</v>
       </c>
@@ -1121,7 +1136,7 @@
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="33" t="s">
         <v>23</v>
       </c>
@@ -1154,7 +1169,7 @@
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="33" t="s">
         <v>24</v>
       </c>
@@ -1187,7 +1202,7 @@
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="50"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="33" t="s">
         <v>25</v>
       </c>
@@ -1220,14 +1235,14 @@
     </row>
     <row r="16" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="48">
+      <c r="B16" s="49">
         <v>3</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
@@ -1245,7 +1260,7 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="49"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="20" t="s">
         <v>20</v>
       </c>
@@ -1278,7 +1293,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="49"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="20" t="s">
         <v>23</v>
       </c>
@@ -1311,7 +1326,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="20" t="s">
         <v>24</v>
       </c>
@@ -1344,7 +1359,7 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="20" t="s">
         <v>25</v>
       </c>
@@ -1377,14 +1392,14 @@
     </row>
     <row r="21" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
-      <c r="B21" s="48">
+      <c r="B21" s="49">
         <v>4</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
@@ -1402,7 +1417,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="49"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="20" t="s">
         <v>20</v>
       </c>
@@ -1435,7 +1450,7 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="49"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="20" t="s">
         <v>23</v>
       </c>
@@ -1468,7 +1483,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="49"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="20" t="s">
         <v>24</v>
       </c>
@@ -1501,7 +1516,7 @@
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="20" t="s">
         <v>25</v>
       </c>
@@ -1534,14 +1549,14 @@
     </row>
     <row r="26" spans="1:15" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
-      <c r="B26" s="48">
+      <c r="B26" s="49">
         <v>5</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
@@ -1559,7 +1574,7 @@
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="49"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="20" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1607,7 @@
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="49"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="20" t="s">
         <v>23</v>
       </c>
@@ -1625,7 +1640,7 @@
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-      <c r="B29" s="49"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="20" t="s">
         <v>24</v>
       </c>
@@ -1658,7 +1673,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
-      <c r="B30" s="50"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="20" t="s">
         <v>25</v>
       </c>
@@ -1691,11 +1706,11 @@
     </row>
     <row r="31" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
-      <c r="B31" s="51">
+      <c r="B31" s="53">
         <v>6</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>30</v>
@@ -1716,7 +1731,7 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
-      <c r="B32" s="51"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="33" t="s">
         <v>20</v>
       </c>
@@ -1749,7 +1764,7 @@
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
-      <c r="B33" s="51"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="33" t="s">
         <v>23</v>
       </c>
@@ -1782,7 +1797,7 @@
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="33" t="s">
         <v>24</v>
       </c>
@@ -1815,7 +1830,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
-      <c r="B35" s="51"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="33" t="s">
         <v>25</v>
       </c>
@@ -1848,11 +1863,11 @@
     </row>
     <row r="36" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
-      <c r="B36" s="48">
+      <c r="B36" s="49">
         <v>7</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>30</v>
@@ -1873,7 +1888,7 @@
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37" s="49"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="33" t="s">
         <v>20</v>
       </c>
@@ -1886,7 +1901,7 @@
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K37" s="27">
         <v>50</v>
@@ -1906,7 +1921,7 @@
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="49"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="33" t="s">
         <v>23</v>
       </c>
@@ -1919,7 +1934,7 @@
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K38" s="27">
         <v>50</v>
@@ -1939,7 +1954,7 @@
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="49"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="33" t="s">
         <v>24</v>
       </c>
@@ -1952,7 +1967,7 @@
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K39" s="27">
         <v>50</v>
@@ -1972,7 +1987,7 @@
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
-      <c r="B40" s="50"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="33" t="s">
         <v>25</v>
       </c>
@@ -1985,7 +2000,7 @@
       </c>
       <c r="I40" s="31"/>
       <c r="J40" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K40" s="27">
         <v>50</v>
@@ -2005,11 +2020,11 @@
     </row>
     <row r="41" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
-      <c r="B41" s="48">
+      <c r="B41" s="49">
         <v>8</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>30</v>
@@ -2030,7 +2045,7 @@
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
-      <c r="B42" s="49"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="33" t="s">
         <v>20</v>
       </c>
@@ -2043,7 +2058,7 @@
       </c>
       <c r="I42" s="31"/>
       <c r="J42" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K42" s="27">
         <v>50</v>
@@ -2063,7 +2078,7 @@
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
-      <c r="B43" s="49"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="33" t="s">
         <v>23</v>
       </c>
@@ -2076,7 +2091,7 @@
       </c>
       <c r="I43" s="31"/>
       <c r="J43" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K43" s="27">
         <v>50</v>
@@ -2096,7 +2111,7 @@
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44" s="49"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="33" t="s">
         <v>24</v>
       </c>
@@ -2109,7 +2124,7 @@
       </c>
       <c r="I44" s="31"/>
       <c r="J44" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K44" s="27">
         <v>50</v>
@@ -2129,7 +2144,7 @@
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="33" t="s">
         <v>25</v>
       </c>
@@ -2142,7 +2157,7 @@
       </c>
       <c r="I45" s="31"/>
       <c r="J45" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K45" s="27">
         <v>50</v>
@@ -2162,11 +2177,11 @@
     </row>
     <row r="46" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
-      <c r="B46" s="48">
+      <c r="B46" s="49">
         <v>9</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>30</v>
@@ -2187,7 +2202,7 @@
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
-      <c r="B47" s="49"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="20" t="s">
         <v>20</v>
       </c>
@@ -2220,7 +2235,7 @@
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
-      <c r="B48" s="49"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="20" t="s">
         <v>23</v>
       </c>
@@ -2253,7 +2268,7 @@
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
-      <c r="B49" s="49"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="20" t="s">
         <v>24</v>
       </c>
@@ -2286,7 +2301,7 @@
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="20" t="s">
         <v>25</v>
       </c>
@@ -2319,11 +2334,11 @@
     </row>
     <row r="51" spans="1:15" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
-      <c r="B51" s="48">
+      <c r="B51" s="49">
         <v>10</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>30</v>
@@ -2344,7 +2359,7 @@
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
-      <c r="B52" s="49"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="20" t="s">
         <v>20</v>
       </c>
@@ -2377,7 +2392,7 @@
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
-      <c r="B53" s="49"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="20" t="s">
         <v>23</v>
       </c>
@@ -2410,7 +2425,7 @@
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
-      <c r="B54" s="49"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="20" t="s">
         <v>24</v>
       </c>
@@ -2443,7 +2458,7 @@
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="20" t="s">
         <v>25</v>
       </c>
@@ -2476,7 +2491,7 @@
     </row>
     <row r="56" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
-      <c r="B56" s="48">
+      <c r="B56" s="49">
         <v>11</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -2501,7 +2516,7 @@
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
-      <c r="B57" s="49"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="20" t="s">
         <v>20</v>
       </c>
@@ -2536,7 +2551,7 @@
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
-      <c r="B58" s="49"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="20" t="s">
         <v>23</v>
       </c>
@@ -2571,7 +2586,7 @@
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
-      <c r="B59" s="49"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="20" t="s">
         <v>24</v>
       </c>
@@ -2606,7 +2621,7 @@
     </row>
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="20" t="s">
         <v>25</v>
       </c>
@@ -2639,7 +2654,7 @@
     </row>
     <row r="61" spans="1:15" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
-      <c r="B61" s="48">
+      <c r="B61" s="49">
         <v>12</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -2664,7 +2679,7 @@
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
-      <c r="B62" s="49"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="20" t="s">
         <v>20</v>
       </c>
@@ -2699,7 +2714,7 @@
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
-      <c r="B63" s="49"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="20" t="s">
         <v>23</v>
       </c>
@@ -2734,7 +2749,7 @@
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
-      <c r="B64" s="49"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="20" t="s">
         <v>24</v>
       </c>
@@ -2769,7 +2784,7 @@
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="20" t="s">
         <v>25</v>
       </c>
@@ -2802,7 +2817,7 @@
     </row>
     <row r="66" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
-      <c r="B66" s="48">
+      <c r="B66" s="49">
         <v>13</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -2827,7 +2842,7 @@
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
-      <c r="B67" s="49"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="20" t="s">
         <v>20</v>
       </c>
@@ -2862,7 +2877,7 @@
     </row>
     <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
-      <c r="B68" s="49"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="20" t="s">
         <v>23</v>
       </c>
@@ -2897,7 +2912,7 @@
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
-      <c r="B69" s="49"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="20" t="s">
         <v>24</v>
       </c>
@@ -2932,7 +2947,7 @@
     </row>
     <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="20" t="s">
         <v>25</v>
       </c>
@@ -2965,7 +2980,7 @@
     </row>
     <row r="71" spans="1:15" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
-      <c r="B71" s="48">
+      <c r="B71" s="49">
         <v>14</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -2990,7 +3005,7 @@
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
-      <c r="B72" s="49"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="20" t="s">
         <v>20</v>
       </c>
@@ -3019,7 +3034,7 @@
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
-      <c r="B73" s="49"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="20" t="s">
         <v>23</v>
       </c>
@@ -3048,7 +3063,7 @@
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
-      <c r="B74" s="49"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="20" t="s">
         <v>24</v>
       </c>
@@ -3077,7 +3092,7 @@
     </row>
     <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="20" t="s">
         <v>25</v>
       </c>
@@ -3106,7 +3121,7 @@
     </row>
     <row r="76" spans="1:15" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12"/>
-      <c r="B76" s="48">
+      <c r="B76" s="49">
         <v>15</v>
       </c>
       <c r="C76" s="13" t="s">
@@ -3131,7 +3146,7 @@
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
-      <c r="B77" s="49"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="20" t="s">
         <v>20</v>
       </c>
@@ -3164,7 +3179,7 @@
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
-      <c r="B78" s="49"/>
+      <c r="B78" s="50"/>
       <c r="C78" s="20" t="s">
         <v>23</v>
       </c>
@@ -3197,7 +3212,7 @@
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
-      <c r="B79" s="49"/>
+      <c r="B79" s="50"/>
       <c r="C79" s="20" t="s">
         <v>24</v>
       </c>
@@ -3230,7 +3245,7 @@
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
-      <c r="B80" s="50"/>
+      <c r="B80" s="51"/>
       <c r="C80" s="20" t="s">
         <v>25</v>
       </c>
@@ -3267,7 +3282,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>30</v>
@@ -3420,11 +3435,11 @@
     </row>
     <row r="86" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12"/>
-      <c r="B86" s="51">
+      <c r="B86" s="53">
         <v>17</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>30</v>
@@ -3445,7 +3460,7 @@
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
-      <c r="B87" s="51"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="33" t="s">
         <v>20</v>
       </c>
@@ -3478,7 +3493,7 @@
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
-      <c r="B88" s="51"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="33" t="s">
         <v>23</v>
       </c>
@@ -3511,7 +3526,7 @@
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19"/>
-      <c r="B89" s="51"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="33" t="s">
         <v>24</v>
       </c>
@@ -3544,7 +3559,7 @@
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
-      <c r="B90" s="51"/>
+      <c r="B90" s="53"/>
       <c r="C90" s="33" t="s">
         <v>25</v>
       </c>
@@ -3577,7 +3592,7 @@
     </row>
     <row r="91" spans="1:15" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12"/>
-      <c r="B91" s="48">
+      <c r="B91" s="49">
         <v>18</v>
       </c>
       <c r="C91" s="13" t="s">
@@ -3602,7 +3617,7 @@
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
-      <c r="B92" s="49"/>
+      <c r="B92" s="50"/>
       <c r="C92" s="20" t="s">
         <v>20</v>
       </c>
@@ -3635,7 +3650,7 @@
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
-      <c r="B93" s="49"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="20" t="s">
         <v>23</v>
       </c>
@@ -3668,7 +3683,7 @@
     </row>
     <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
-      <c r="B94" s="49"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="20" t="s">
         <v>24</v>
       </c>
@@ -3701,7 +3716,7 @@
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
-      <c r="B95" s="50"/>
+      <c r="B95" s="51"/>
       <c r="C95" s="20" t="s">
         <v>25</v>
       </c>
@@ -3734,14 +3749,14 @@
     </row>
     <row r="96" spans="1:15" s="47" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
-      <c r="B96" s="53">
+      <c r="B96" s="48">
         <v>19</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E96" s="41"/>
       <c r="F96" s="42"/>
@@ -3757,7 +3772,7 @@
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19"/>
-      <c r="B97" s="53"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="33" t="s">
         <v>20</v>
       </c>
@@ -3790,7 +3805,7 @@
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
-      <c r="B98" s="53"/>
+      <c r="B98" s="48"/>
       <c r="C98" s="33" t="s">
         <v>23</v>
       </c>
@@ -3823,7 +3838,7 @@
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19"/>
-      <c r="B99" s="53"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="33" t="s">
         <v>24</v>
       </c>
@@ -3856,7 +3871,7 @@
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19"/>
-      <c r="B100" s="53"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="33" t="s">
         <v>25</v>
       </c>
@@ -3889,14 +3904,14 @@
     </row>
     <row r="101" spans="1:15" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12"/>
-      <c r="B101" s="48">
+      <c r="B101" s="49">
         <v>20</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E101" s="15"/>
       <c r="F101" s="16"/>
@@ -3914,7 +3929,7 @@
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19"/>
-      <c r="B102" s="49"/>
+      <c r="B102" s="50"/>
       <c r="C102" s="33" t="s">
         <v>20</v>
       </c>
@@ -3947,7 +3962,7 @@
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19"/>
-      <c r="B103" s="49"/>
+      <c r="B103" s="50"/>
       <c r="C103" s="33" t="s">
         <v>23</v>
       </c>
@@ -3980,7 +3995,7 @@
     </row>
     <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19"/>
-      <c r="B104" s="49"/>
+      <c r="B104" s="50"/>
       <c r="C104" s="33" t="s">
         <v>24</v>
       </c>
@@ -4013,7 +4028,7 @@
     </row>
     <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19"/>
-      <c r="B105" s="50"/>
+      <c r="B105" s="51"/>
       <c r="C105" s="33" t="s">
         <v>25</v>
       </c>
@@ -4046,14 +4061,14 @@
     </row>
     <row r="106" spans="1:15" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12"/>
-      <c r="B106" s="48">
+      <c r="B106" s="49">
         <v>21</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E106" s="15"/>
       <c r="F106" s="16"/>
@@ -4071,7 +4086,7 @@
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
-      <c r="B107" s="49"/>
+      <c r="B107" s="50"/>
       <c r="C107" s="33" t="s">
         <v>20</v>
       </c>
@@ -4104,7 +4119,7 @@
     </row>
     <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19"/>
-      <c r="B108" s="49"/>
+      <c r="B108" s="50"/>
       <c r="C108" s="33" t="s">
         <v>23</v>
       </c>
@@ -4137,7 +4152,7 @@
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19"/>
-      <c r="B109" s="49"/>
+      <c r="B109" s="50"/>
       <c r="C109" s="33" t="s">
         <v>24</v>
       </c>
@@ -4170,7 +4185,7 @@
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19"/>
-      <c r="B110" s="50"/>
+      <c r="B110" s="51"/>
       <c r="C110" s="33" t="s">
         <v>25</v>
       </c>
@@ -4203,14 +4218,14 @@
     </row>
     <row r="111" spans="1:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12"/>
-      <c r="B111" s="48">
+      <c r="B111" s="49">
         <v>22</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E111" s="15"/>
       <c r="F111" s="16"/>
@@ -4228,7 +4243,7 @@
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19"/>
-      <c r="B112" s="49"/>
+      <c r="B112" s="50"/>
       <c r="C112" s="20" t="s">
         <v>20</v>
       </c>
@@ -4261,7 +4276,7 @@
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19"/>
-      <c r="B113" s="49"/>
+      <c r="B113" s="50"/>
       <c r="C113" s="20" t="s">
         <v>23</v>
       </c>
@@ -4294,7 +4309,7 @@
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19"/>
-      <c r="B114" s="49"/>
+      <c r="B114" s="50"/>
       <c r="C114" s="20" t="s">
         <v>24</v>
       </c>
@@ -4327,7 +4342,7 @@
     </row>
     <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19"/>
-      <c r="B115" s="50"/>
+      <c r="B115" s="51"/>
       <c r="C115" s="20" t="s">
         <v>25</v>
       </c>
@@ -4358,16 +4373,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12"/>
-      <c r="B116" s="48">
+      <c r="B116" s="49">
         <v>23</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E116" s="15"/>
       <c r="F116" s="16"/>
@@ -4385,7 +4400,7 @@
     </row>
     <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19"/>
-      <c r="B117" s="49"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="33" t="s">
         <v>20</v>
       </c>
@@ -4418,7 +4433,7 @@
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19"/>
-      <c r="B118" s="49"/>
+      <c r="B118" s="50"/>
       <c r="C118" s="33" t="s">
         <v>23</v>
       </c>
@@ -4451,7 +4466,7 @@
     </row>
     <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19"/>
-      <c r="B119" s="49"/>
+      <c r="B119" s="50"/>
       <c r="C119" s="33" t="s">
         <v>24</v>
       </c>
@@ -4484,7 +4499,7 @@
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="19"/>
-      <c r="B120" s="50"/>
+      <c r="B120" s="51"/>
       <c r="C120" s="33" t="s">
         <v>25</v>
       </c>
@@ -4517,7 +4532,7 @@
     </row>
     <row r="121" spans="1:15" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12"/>
-      <c r="B121" s="48">
+      <c r="B121" s="49">
         <v>24</v>
       </c>
       <c r="C121" s="13" t="s">
@@ -4542,7 +4557,7 @@
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
-      <c r="B122" s="49"/>
+      <c r="B122" s="50"/>
       <c r="C122" s="20" t="s">
         <v>20</v>
       </c>
@@ -4575,7 +4590,7 @@
     </row>
     <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="19"/>
-      <c r="B123" s="49"/>
+      <c r="B123" s="50"/>
       <c r="C123" s="20" t="s">
         <v>23</v>
       </c>
@@ -4608,7 +4623,7 @@
     </row>
     <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="19"/>
-      <c r="B124" s="49"/>
+      <c r="B124" s="50"/>
       <c r="C124" s="20" t="s">
         <v>24</v>
       </c>
@@ -4641,7 +4656,7 @@
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19"/>
-      <c r="B125" s="50"/>
+      <c r="B125" s="51"/>
       <c r="C125" s="20" t="s">
         <v>25</v>
       </c>
@@ -4674,7 +4689,7 @@
     </row>
     <row r="126" spans="1:15" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12"/>
-      <c r="B126" s="48">
+      <c r="B126" s="49">
         <v>25</v>
       </c>
       <c r="C126" s="13" t="s">
@@ -4699,7 +4714,7 @@
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19"/>
-      <c r="B127" s="49"/>
+      <c r="B127" s="50"/>
       <c r="C127" s="20" t="s">
         <v>20</v>
       </c>
@@ -4712,7 +4727,7 @@
       </c>
       <c r="I127" s="31"/>
       <c r="J127" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K127" s="27">
         <v>0</v>
@@ -4732,7 +4747,7 @@
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19"/>
-      <c r="B128" s="49"/>
+      <c r="B128" s="50"/>
       <c r="C128" s="20" t="s">
         <v>23</v>
       </c>
@@ -4745,7 +4760,7 @@
       </c>
       <c r="I128" s="31"/>
       <c r="J128" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K128" s="27">
         <v>0</v>
@@ -4765,7 +4780,7 @@
     </row>
     <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19"/>
-      <c r="B129" s="49"/>
+      <c r="B129" s="50"/>
       <c r="C129" s="20" t="s">
         <v>24</v>
       </c>
@@ -4778,7 +4793,7 @@
       </c>
       <c r="I129" s="31"/>
       <c r="J129" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K129" s="27">
         <v>0</v>
@@ -4798,7 +4813,7 @@
     </row>
     <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19"/>
-      <c r="B130" s="50"/>
+      <c r="B130" s="51"/>
       <c r="C130" s="20" t="s">
         <v>25</v>
       </c>
@@ -4811,7 +4826,7 @@
       </c>
       <c r="I130" s="31"/>
       <c r="J130" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K130" s="27">
         <v>0</v>
@@ -4831,14 +4846,14 @@
     </row>
     <row r="131" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12"/>
-      <c r="B131" s="48">
+      <c r="B131" s="49">
         <v>26</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E131" s="15"/>
       <c r="F131" s="16"/>
@@ -4856,7 +4871,7 @@
     </row>
     <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="19"/>
-      <c r="B132" s="49"/>
+      <c r="B132" s="50"/>
       <c r="C132" s="33" t="s">
         <v>20</v>
       </c>
@@ -4865,7 +4880,7 @@
       <c r="F132" s="29"/>
       <c r="G132" s="30"/>
       <c r="H132" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I132" s="31"/>
       <c r="J132" s="27" t="s">
@@ -4889,7 +4904,7 @@
     </row>
     <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19"/>
-      <c r="B133" s="49"/>
+      <c r="B133" s="50"/>
       <c r="C133" s="33" t="s">
         <v>23</v>
       </c>
@@ -4898,7 +4913,7 @@
       <c r="F133" s="29"/>
       <c r="G133" s="30"/>
       <c r="H133" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I133" s="31"/>
       <c r="J133" s="27" t="s">
@@ -4922,7 +4937,7 @@
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19"/>
-      <c r="B134" s="49"/>
+      <c r="B134" s="50"/>
       <c r="C134" s="33" t="s">
         <v>24</v>
       </c>
@@ -4931,7 +4946,7 @@
       <c r="F134" s="29"/>
       <c r="G134" s="30"/>
       <c r="H134" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I134" s="31"/>
       <c r="J134" s="27" t="s">
@@ -4955,7 +4970,7 @@
     </row>
     <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19"/>
-      <c r="B135" s="50"/>
+      <c r="B135" s="51"/>
       <c r="C135" s="33" t="s">
         <v>25</v>
       </c>
@@ -4964,7 +4979,7 @@
       <c r="F135" s="29"/>
       <c r="G135" s="30"/>
       <c r="H135" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I135" s="31"/>
       <c r="J135" s="27" t="s">
@@ -4988,13 +5003,15 @@
     </row>
     <row r="136" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12"/>
-      <c r="B136" s="48">
+      <c r="B136" s="49">
         <v>27</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D136" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E136" s="15"/>
       <c r="F136" s="16"/>
       <c r="G136" s="17" t="s">
@@ -5011,7 +5028,7 @@
     </row>
     <row r="137" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19"/>
-      <c r="B137" s="49"/>
+      <c r="B137" s="50"/>
       <c r="C137" s="33" t="s">
         <v>20</v>
       </c>
@@ -5020,7 +5037,7 @@
       <c r="F137" s="29"/>
       <c r="G137" s="30"/>
       <c r="H137" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I137" s="31"/>
       <c r="J137" s="27" t="s">
@@ -5044,7 +5061,7 @@
     </row>
     <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="19"/>
-      <c r="B138" s="49"/>
+      <c r="B138" s="50"/>
       <c r="C138" s="33" t="s">
         <v>23</v>
       </c>
@@ -5053,7 +5070,7 @@
       <c r="F138" s="29"/>
       <c r="G138" s="30"/>
       <c r="H138" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I138" s="31"/>
       <c r="J138" s="27" t="s">
@@ -5077,7 +5094,7 @@
     </row>
     <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19"/>
-      <c r="B139" s="49"/>
+      <c r="B139" s="50"/>
       <c r="C139" s="33" t="s">
         <v>24</v>
       </c>
@@ -5086,7 +5103,7 @@
       <c r="F139" s="29"/>
       <c r="G139" s="30"/>
       <c r="H139" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I139" s="31"/>
       <c r="J139" s="27" t="s">
@@ -5110,7 +5127,7 @@
     </row>
     <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="19"/>
-      <c r="B140" s="50"/>
+      <c r="B140" s="51"/>
       <c r="C140" s="33" t="s">
         <v>25</v>
       </c>
@@ -5119,7 +5136,7 @@
       <c r="F140" s="29"/>
       <c r="G140" s="30"/>
       <c r="H140" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I140" s="31"/>
       <c r="J140" s="27" t="s">
@@ -5141,15 +5158,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12"/>
-      <c r="B141" s="48">
+      <c r="B141" s="49">
         <v>28</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D141" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E141" s="15"/>
       <c r="F141" s="16"/>
       <c r="G141" s="17" t="s">
@@ -5166,7 +5185,7 @@
     </row>
     <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="19"/>
-      <c r="B142" s="49"/>
+      <c r="B142" s="50"/>
       <c r="C142" s="33" t="s">
         <v>20</v>
       </c>
@@ -5175,14 +5194,14 @@
       <c r="F142" s="29"/>
       <c r="G142" s="30"/>
       <c r="H142" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I142" s="31"/>
       <c r="J142" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K142" s="27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L142" s="27">
         <v>0</v>
@@ -5199,7 +5218,7 @@
     </row>
     <row r="143" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19"/>
-      <c r="B143" s="49"/>
+      <c r="B143" s="50"/>
       <c r="C143" s="33" t="s">
         <v>23</v>
       </c>
@@ -5208,7 +5227,7 @@
       <c r="F143" s="29"/>
       <c r="G143" s="30"/>
       <c r="H143" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I143" s="31"/>
       <c r="J143" s="27" t="s">
@@ -5218,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="L143" s="27">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M143" s="27">
         <v>0</v>
@@ -5232,7 +5251,7 @@
     </row>
     <row r="144" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="19"/>
-      <c r="B144" s="49"/>
+      <c r="B144" s="50"/>
       <c r="C144" s="33" t="s">
         <v>24</v>
       </c>
@@ -5241,7 +5260,7 @@
       <c r="F144" s="29"/>
       <c r="G144" s="30"/>
       <c r="H144" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I144" s="31"/>
       <c r="J144" s="27" t="s">
@@ -5265,7 +5284,7 @@
     </row>
     <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19"/>
-      <c r="B145" s="50"/>
+      <c r="B145" s="51"/>
       <c r="C145" s="33" t="s">
         <v>25</v>
       </c>
@@ -5274,7 +5293,7 @@
       <c r="F145" s="29"/>
       <c r="G145" s="30"/>
       <c r="H145" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I145" s="31"/>
       <c r="J145" s="27" t="s">
@@ -5296,19 +5315,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12"/>
-      <c r="B146" s="48">
+      <c r="B146" s="49">
         <v>29</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D146" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E146" s="15"/>
       <c r="F146" s="16"/>
       <c r="G146" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
@@ -5321,7 +5342,7 @@
     </row>
     <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="19"/>
-      <c r="B147" s="49"/>
+      <c r="B147" s="50"/>
       <c r="C147" s="33" t="s">
         <v>20</v>
       </c>
@@ -5330,7 +5351,7 @@
       <c r="F147" s="29"/>
       <c r="G147" s="30"/>
       <c r="H147" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I147" s="31"/>
       <c r="J147" s="27" t="s">
@@ -5354,7 +5375,7 @@
     </row>
     <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="19"/>
-      <c r="B148" s="49"/>
+      <c r="B148" s="50"/>
       <c r="C148" s="33" t="s">
         <v>23</v>
       </c>
@@ -5363,7 +5384,7 @@
       <c r="F148" s="29"/>
       <c r="G148" s="30"/>
       <c r="H148" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I148" s="31"/>
       <c r="J148" s="27" t="s">
@@ -5387,7 +5408,7 @@
     </row>
     <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19"/>
-      <c r="B149" s="49"/>
+      <c r="B149" s="50"/>
       <c r="C149" s="33" t="s">
         <v>24</v>
       </c>
@@ -5396,7 +5417,7 @@
       <c r="F149" s="29"/>
       <c r="G149" s="30"/>
       <c r="H149" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I149" s="31"/>
       <c r="J149" s="27" t="s">
@@ -5420,7 +5441,7 @@
     </row>
     <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="19"/>
-      <c r="B150" s="50"/>
+      <c r="B150" s="51"/>
       <c r="C150" s="33" t="s">
         <v>25</v>
       </c>
@@ -5429,7 +5450,7 @@
       <c r="F150" s="29"/>
       <c r="G150" s="30"/>
       <c r="H150" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I150" s="31"/>
       <c r="J150" s="27" t="s">
@@ -5451,21 +5472,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12"/>
-      <c r="B151" s="48">
+      <c r="B151" s="49">
         <v>30</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E151" s="15"/>
       <c r="F151" s="16"/>
       <c r="G151" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
@@ -5478,7 +5499,7 @@
     </row>
     <row r="152" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="19"/>
-      <c r="B152" s="49"/>
+      <c r="B152" s="50"/>
       <c r="C152" s="33" t="s">
         <v>20</v>
       </c>
@@ -5487,14 +5508,14 @@
       <c r="F152" s="29"/>
       <c r="G152" s="30"/>
       <c r="H152" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I152" s="31"/>
       <c r="J152" s="27" t="s">
         <v>22</v>
       </c>
       <c r="K152" s="27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L152" s="27">
         <v>0</v>
@@ -5511,7 +5532,7 @@
     </row>
     <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="19"/>
-      <c r="B153" s="49"/>
+      <c r="B153" s="50"/>
       <c r="C153" s="33" t="s">
         <v>23</v>
       </c>
@@ -5520,7 +5541,7 @@
       <c r="F153" s="29"/>
       <c r="G153" s="30"/>
       <c r="H153" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I153" s="31"/>
       <c r="J153" s="27" t="s">
@@ -5530,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="L153" s="27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M153" s="27">
         <v>0</v>
@@ -5544,7 +5565,7 @@
     </row>
     <row r="154" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="19"/>
-      <c r="B154" s="49"/>
+      <c r="B154" s="50"/>
       <c r="C154" s="33" t="s">
         <v>24</v>
       </c>
@@ -5553,7 +5574,7 @@
       <c r="F154" s="29"/>
       <c r="G154" s="30"/>
       <c r="H154" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I154" s="31"/>
       <c r="J154" s="27" t="s">
@@ -5577,7 +5598,7 @@
     </row>
     <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19"/>
-      <c r="B155" s="50"/>
+      <c r="B155" s="51"/>
       <c r="C155" s="33" t="s">
         <v>25</v>
       </c>
@@ -5586,7 +5607,7 @@
       <c r="F155" s="29"/>
       <c r="G155" s="30"/>
       <c r="H155" s="33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I155" s="31"/>
       <c r="J155" s="27" t="s">
@@ -5608,19 +5629,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12"/>
-      <c r="B156" s="48">
+      <c r="B156" s="49">
         <v>31</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D156" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="E156" s="15"/>
       <c r="F156" s="16"/>
       <c r="G156" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
@@ -5633,7 +5656,7 @@
     </row>
     <row r="157" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="19"/>
-      <c r="B157" s="49"/>
+      <c r="B157" s="50"/>
       <c r="C157" s="33" t="s">
         <v>20</v>
       </c>
@@ -5649,7 +5672,7 @@
         <v>22</v>
       </c>
       <c r="K157" s="27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L157" s="27">
         <v>0</v>
@@ -5666,7 +5689,7 @@
     </row>
     <row r="158" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="19"/>
-      <c r="B158" s="49"/>
+      <c r="B158" s="50"/>
       <c r="C158" s="33" t="s">
         <v>23</v>
       </c>
@@ -5685,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="L158" s="27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M158" s="27">
         <v>0</v>
@@ -5699,7 +5722,7 @@
     </row>
     <row r="159" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19"/>
-      <c r="B159" s="49"/>
+      <c r="B159" s="50"/>
       <c r="C159" s="33" t="s">
         <v>24</v>
       </c>
@@ -5732,7 +5755,7 @@
     </row>
     <row r="160" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="19"/>
-      <c r="B160" s="50"/>
+      <c r="B160" s="51"/>
       <c r="C160" s="33" t="s">
         <v>25</v>
       </c>
@@ -5763,19 +5786,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12"/>
-      <c r="B161" s="48">
+      <c r="B161" s="49">
         <v>32</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D161" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="E161" s="15"/>
       <c r="F161" s="16"/>
       <c r="G161" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
@@ -5786,9 +5811,9 @@
       <c r="N161" s="18"/>
       <c r="O161" s="18"/>
     </row>
-    <row r="162" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="19"/>
-      <c r="B162" s="49"/>
+      <c r="B162" s="50"/>
       <c r="C162" s="33" t="s">
         <v>20</v>
       </c>
@@ -5804,7 +5829,7 @@
         <v>22</v>
       </c>
       <c r="K162" s="27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L162" s="27">
         <v>0</v>
@@ -5819,9 +5844,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="19"/>
-      <c r="B163" s="49"/>
+      <c r="B163" s="50"/>
       <c r="C163" s="33" t="s">
         <v>23</v>
       </c>
@@ -5840,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="L163" s="27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M163" s="27">
         <v>0</v>
@@ -5852,9 +5877,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="19"/>
-      <c r="B164" s="49"/>
+      <c r="B164" s="50"/>
       <c r="C164" s="33" t="s">
         <v>24</v>
       </c>
@@ -5885,9 +5910,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="19"/>
-      <c r="B165" s="50"/>
+      <c r="B165" s="51"/>
       <c r="C165" s="33" t="s">
         <v>25</v>
       </c>
@@ -5918,15 +5943,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12"/>
-      <c r="B166" s="48">
-        <v>33</v>
+      <c r="B166" s="49">
+        <v>32</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D166" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E166" s="15"/>
       <c r="F166" s="16"/>
       <c r="G166" s="17" t="s">
@@ -5941,9 +5968,9 @@
       <c r="N166" s="18"/>
       <c r="O166" s="18"/>
     </row>
-    <row r="167" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="19"/>
-      <c r="B167" s="49"/>
+      <c r="B167" s="50"/>
       <c r="C167" s="33" t="s">
         <v>20</v>
       </c>
@@ -5974,9 +6001,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19"/>
-      <c r="B168" s="49"/>
+      <c r="B168" s="50"/>
       <c r="C168" s="33" t="s">
         <v>23</v>
       </c>
@@ -6007,9 +6034,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="19"/>
-      <c r="B169" s="49"/>
+      <c r="B169" s="50"/>
       <c r="C169" s="33" t="s">
         <v>24</v>
       </c>
@@ -6040,9 +6067,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="19"/>
-      <c r="B170" s="50"/>
+      <c r="B170" s="51"/>
       <c r="C170" s="33" t="s">
         <v>25</v>
       </c>
@@ -6073,545 +6100,941 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="19"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="34"/>
-      <c r="F171" s="34"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="12"/>
-      <c r="J171" s="35"/>
-      <c r="K171" s="12"/>
-      <c r="L171" s="12"/>
-      <c r="M171" s="12"/>
-      <c r="N171" s="12"/>
-      <c r="O171" s="12"/>
-      <c r="P171" s="12"/>
-    </row>
-    <row r="172" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="12"/>
+      <c r="B171" s="49">
+        <v>33</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171" s="15"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="32"/>
+      <c r="K171" s="18"/>
+      <c r="L171" s="18"/>
+      <c r="M171" s="18"/>
+      <c r="N171" s="18"/>
+      <c r="O171" s="18"/>
+    </row>
+    <row r="172" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="19"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="34"/>
-      <c r="F172" s="34"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="12"/>
-      <c r="I172" s="12"/>
-      <c r="J172" s="35"/>
-      <c r="K172" s="12"/>
-      <c r="L172" s="12"/>
-      <c r="M172" s="12"/>
-      <c r="N172" s="12"/>
-      <c r="O172" s="12"/>
-      <c r="P172" s="12"/>
-    </row>
-    <row r="173" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="50"/>
+      <c r="C172" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="33"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="29"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I172" s="31"/>
+      <c r="J172" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K172" s="27">
+        <v>0</v>
+      </c>
+      <c r="L172" s="27">
+        <v>0</v>
+      </c>
+      <c r="M172" s="27">
+        <v>0</v>
+      </c>
+      <c r="N172" s="27">
+        <v>0</v>
+      </c>
+      <c r="O172" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="34"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="12"/>
-      <c r="I173" s="12"/>
-      <c r="J173" s="35"/>
-      <c r="K173" s="12"/>
-      <c r="L173" s="12"/>
-      <c r="M173" s="12"/>
-      <c r="N173" s="12"/>
-      <c r="O173" s="12"/>
-      <c r="P173" s="12"/>
-    </row>
-    <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="50"/>
+      <c r="C173" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" s="33"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="29"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I173" s="31"/>
+      <c r="J173" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K173" s="27">
+        <v>0</v>
+      </c>
+      <c r="L173" s="27">
+        <v>0</v>
+      </c>
+      <c r="M173" s="27">
+        <v>0</v>
+      </c>
+      <c r="N173" s="27">
+        <v>0</v>
+      </c>
+      <c r="O173" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="19"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="34"/>
-      <c r="F174" s="34"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
-      <c r="J174" s="35"/>
-      <c r="K174" s="12"/>
-      <c r="L174" s="12"/>
-      <c r="M174" s="12"/>
-      <c r="N174" s="12"/>
-      <c r="O174" s="12"/>
-      <c r="P174" s="12"/>
-    </row>
-    <row r="175" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="50"/>
+      <c r="C174" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="33"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="29"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I174" s="31"/>
+      <c r="J174" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K174" s="27">
+        <v>0</v>
+      </c>
+      <c r="L174" s="27">
+        <v>0</v>
+      </c>
+      <c r="M174" s="27">
+        <v>0</v>
+      </c>
+      <c r="N174" s="27">
+        <v>0</v>
+      </c>
+      <c r="O174" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="34"/>
-      <c r="F175" s="34"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="35"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="12"/>
-      <c r="M175" s="12"/>
-      <c r="N175" s="12"/>
-      <c r="O175" s="12"/>
-      <c r="P175" s="12"/>
-    </row>
-    <row r="176" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="19"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="34"/>
-      <c r="F176" s="34"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="35"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
-      <c r="M176" s="12"/>
-      <c r="N176" s="12"/>
-      <c r="O176" s="12"/>
-      <c r="P176" s="12"/>
-    </row>
-    <row r="177" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="51"/>
+      <c r="C175" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="33"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="29"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I175" s="31"/>
+      <c r="J175" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K175" s="27">
+        <v>0</v>
+      </c>
+      <c r="L175" s="27">
+        <v>0</v>
+      </c>
+      <c r="M175" s="27">
+        <v>0</v>
+      </c>
+      <c r="N175" s="27">
+        <v>0</v>
+      </c>
+      <c r="O175" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="12"/>
+      <c r="B176" s="49">
+        <v>34</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176" s="15"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="32"/>
+      <c r="K176" s="18"/>
+      <c r="L176" s="18"/>
+      <c r="M176" s="18"/>
+      <c r="N176" s="18"/>
+      <c r="O176" s="18"/>
+    </row>
+    <row r="177" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="19"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="34"/>
-      <c r="F177" s="34"/>
-      <c r="G177" s="12"/>
-      <c r="H177" s="12"/>
-      <c r="I177" s="12"/>
-      <c r="J177" s="35"/>
-      <c r="K177" s="12"/>
-      <c r="L177" s="12"/>
-      <c r="M177" s="12"/>
-      <c r="N177" s="12"/>
-      <c r="O177" s="12"/>
-      <c r="P177" s="12"/>
-    </row>
-    <row r="178" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="50"/>
+      <c r="C177" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="33"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I177" s="31"/>
+      <c r="J177" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K177" s="27">
+        <v>0</v>
+      </c>
+      <c r="L177" s="27">
+        <v>0</v>
+      </c>
+      <c r="M177" s="27">
+        <v>0</v>
+      </c>
+      <c r="N177" s="27">
+        <v>0</v>
+      </c>
+      <c r="O177" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="19"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="34"/>
-      <c r="F178" s="34"/>
-      <c r="G178" s="12"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="35"/>
-      <c r="K178" s="12"/>
-      <c r="L178" s="12"/>
-      <c r="M178" s="12"/>
-      <c r="N178" s="12"/>
-      <c r="O178" s="12"/>
-      <c r="P178" s="12"/>
-    </row>
-    <row r="179" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="50"/>
+      <c r="C178" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178" s="33"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="29"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I178" s="31"/>
+      <c r="J178" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K178" s="27">
+        <v>0</v>
+      </c>
+      <c r="L178" s="27">
+        <v>0</v>
+      </c>
+      <c r="M178" s="27">
+        <v>0</v>
+      </c>
+      <c r="N178" s="27">
+        <v>0</v>
+      </c>
+      <c r="O178" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="19"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="34"/>
-      <c r="F179" s="34"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="35"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="12"/>
-      <c r="M179" s="12"/>
-      <c r="N179" s="12"/>
-      <c r="O179" s="12"/>
-      <c r="P179" s="12"/>
-    </row>
-    <row r="180" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="50"/>
+      <c r="C179" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" s="33"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="29"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I179" s="31"/>
+      <c r="J179" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K179" s="27">
+        <v>0</v>
+      </c>
+      <c r="L179" s="27">
+        <v>0</v>
+      </c>
+      <c r="M179" s="27">
+        <v>0</v>
+      </c>
+      <c r="N179" s="27">
+        <v>0</v>
+      </c>
+      <c r="O179" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="34"/>
-      <c r="F180" s="34"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="12"/>
-      <c r="I180" s="12"/>
-      <c r="J180" s="35"/>
-      <c r="K180" s="12"/>
-      <c r="L180" s="12"/>
-      <c r="M180" s="12"/>
-      <c r="N180" s="12"/>
-      <c r="O180" s="12"/>
-      <c r="P180" s="12"/>
-    </row>
-    <row r="181" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="19"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="34"/>
-      <c r="F181" s="34"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="12"/>
-      <c r="I181" s="12"/>
-      <c r="J181" s="35"/>
-      <c r="K181" s="12"/>
-      <c r="L181" s="12"/>
-      <c r="M181" s="12"/>
-      <c r="N181" s="12"/>
-      <c r="O181" s="12"/>
-      <c r="P181" s="12"/>
-    </row>
-    <row r="182" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="51"/>
+      <c r="C180" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="33"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="29"/>
+      <c r="G180" s="30"/>
+      <c r="H180" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I180" s="31"/>
+      <c r="J180" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K180" s="27">
+        <v>0</v>
+      </c>
+      <c r="L180" s="27">
+        <v>0</v>
+      </c>
+      <c r="M180" s="27">
+        <v>0</v>
+      </c>
+      <c r="N180" s="27">
+        <v>0</v>
+      </c>
+      <c r="O180" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="12"/>
+      <c r="B181" s="49">
+        <v>35</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" s="15"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="32"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="18"/>
+      <c r="N181" s="18"/>
+      <c r="O181" s="18"/>
+    </row>
+    <row r="182" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="19"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="34"/>
-      <c r="F182" s="34"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="12"/>
-      <c r="I182" s="12"/>
-      <c r="J182" s="35"/>
-      <c r="K182" s="12"/>
-      <c r="L182" s="12"/>
-      <c r="M182" s="12"/>
-      <c r="N182" s="12"/>
-      <c r="O182" s="12"/>
-      <c r="P182" s="12"/>
-    </row>
-    <row r="183" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="50"/>
+      <c r="C182" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" s="33"/>
+      <c r="E182" s="28"/>
+      <c r="F182" s="29"/>
+      <c r="G182" s="30"/>
+      <c r="H182" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I182" s="31"/>
+      <c r="J182" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K182" s="27">
+        <v>0</v>
+      </c>
+      <c r="L182" s="27">
+        <v>0</v>
+      </c>
+      <c r="M182" s="27">
+        <v>0</v>
+      </c>
+      <c r="N182" s="27">
+        <v>0</v>
+      </c>
+      <c r="O182" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="19"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="34"/>
-      <c r="G183" s="12"/>
-      <c r="H183" s="12"/>
-      <c r="I183" s="12"/>
-      <c r="J183" s="35"/>
-      <c r="K183" s="12"/>
-      <c r="L183" s="12"/>
-      <c r="M183" s="12"/>
-      <c r="N183" s="12"/>
-      <c r="O183" s="12"/>
-      <c r="P183" s="12"/>
-    </row>
-    <row r="184" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="50"/>
+      <c r="C183" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" s="33"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="29"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I183" s="31"/>
+      <c r="J183" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K183" s="27">
+        <v>0</v>
+      </c>
+      <c r="L183" s="27">
+        <v>0</v>
+      </c>
+      <c r="M183" s="27">
+        <v>0</v>
+      </c>
+      <c r="N183" s="27">
+        <v>0</v>
+      </c>
+      <c r="O183" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="19"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="34"/>
-      <c r="F184" s="34"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="12"/>
-      <c r="I184" s="12"/>
-      <c r="J184" s="35"/>
-      <c r="K184" s="12"/>
-      <c r="L184" s="12"/>
-      <c r="M184" s="12"/>
-      <c r="N184" s="12"/>
-      <c r="O184" s="12"/>
-      <c r="P184" s="12"/>
-    </row>
-    <row r="185" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="50"/>
+      <c r="C184" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" s="33"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="29"/>
+      <c r="G184" s="30"/>
+      <c r="H184" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I184" s="31"/>
+      <c r="J184" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K184" s="27">
+        <v>0</v>
+      </c>
+      <c r="L184" s="27">
+        <v>0</v>
+      </c>
+      <c r="M184" s="27">
+        <v>0</v>
+      </c>
+      <c r="N184" s="27">
+        <v>0</v>
+      </c>
+      <c r="O184" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="19"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="34"/>
-      <c r="F185" s="34"/>
-      <c r="G185" s="12"/>
-      <c r="H185" s="12"/>
-      <c r="I185" s="12"/>
-      <c r="J185" s="35"/>
-      <c r="K185" s="12"/>
-      <c r="L185" s="12"/>
-      <c r="M185" s="12"/>
-      <c r="N185" s="12"/>
-      <c r="O185" s="12"/>
-      <c r="P185" s="12"/>
-    </row>
-    <row r="186" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="19"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="34"/>
-      <c r="G186" s="12"/>
-      <c r="H186" s="12"/>
-      <c r="I186" s="12"/>
-      <c r="J186" s="35"/>
-      <c r="K186" s="12"/>
-      <c r="L186" s="12"/>
-      <c r="M186" s="12"/>
-      <c r="N186" s="12"/>
-      <c r="O186" s="12"/>
-      <c r="P186" s="12"/>
-    </row>
-    <row r="187" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="51"/>
+      <c r="C185" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="33"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="29"/>
+      <c r="G185" s="30"/>
+      <c r="H185" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I185" s="31"/>
+      <c r="J185" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K185" s="27">
+        <v>0</v>
+      </c>
+      <c r="L185" s="27">
+        <v>0</v>
+      </c>
+      <c r="M185" s="27">
+        <v>0</v>
+      </c>
+      <c r="N185" s="27">
+        <v>0</v>
+      </c>
+      <c r="O185" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="12"/>
+      <c r="B186" s="49">
+        <v>36</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D186" s="14"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="32"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="18"/>
+      <c r="N186" s="18"/>
+      <c r="O186" s="18"/>
+    </row>
+    <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="19"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="34"/>
-      <c r="F187" s="34"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="12"/>
-      <c r="I187" s="12"/>
-      <c r="J187" s="35"/>
-      <c r="K187" s="12"/>
-      <c r="L187" s="12"/>
-      <c r="M187" s="12"/>
-      <c r="N187" s="12"/>
-      <c r="O187" s="12"/>
-      <c r="P187" s="12"/>
-    </row>
-    <row r="188" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="50"/>
+      <c r="C187" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" s="33"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="29"/>
+      <c r="G187" s="30"/>
+      <c r="H187" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I187" s="31"/>
+      <c r="J187" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K187" s="27">
+        <v>0</v>
+      </c>
+      <c r="L187" s="27">
+        <v>0</v>
+      </c>
+      <c r="M187" s="27">
+        <v>0</v>
+      </c>
+      <c r="N187" s="27">
+        <v>0</v>
+      </c>
+      <c r="O187" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="19"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="34"/>
-      <c r="F188" s="34"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="12"/>
-      <c r="I188" s="12"/>
-      <c r="J188" s="35"/>
-      <c r="K188" s="12"/>
-      <c r="L188" s="12"/>
-      <c r="M188" s="12"/>
-      <c r="N188" s="12"/>
-      <c r="O188" s="12"/>
-      <c r="P188" s="12"/>
-    </row>
-    <row r="189" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="50"/>
+      <c r="C188" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" s="33"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="29"/>
+      <c r="G188" s="30"/>
+      <c r="H188" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I188" s="31"/>
+      <c r="J188" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K188" s="27">
+        <v>0</v>
+      </c>
+      <c r="L188" s="27">
+        <v>0</v>
+      </c>
+      <c r="M188" s="27">
+        <v>0</v>
+      </c>
+      <c r="N188" s="27">
+        <v>0</v>
+      </c>
+      <c r="O188" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="34"/>
-      <c r="F189" s="34"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="35"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="12"/>
-      <c r="M189" s="12"/>
-      <c r="N189" s="12"/>
-      <c r="O189" s="12"/>
-      <c r="P189" s="12"/>
-    </row>
-    <row r="190" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="50"/>
+      <c r="C189" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" s="33"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="29"/>
+      <c r="G189" s="30"/>
+      <c r="H189" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I189" s="31"/>
+      <c r="J189" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K189" s="27">
+        <v>0</v>
+      </c>
+      <c r="L189" s="27">
+        <v>0</v>
+      </c>
+      <c r="M189" s="27">
+        <v>0</v>
+      </c>
+      <c r="N189" s="27">
+        <v>0</v>
+      </c>
+      <c r="O189" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="19"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="34"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="12"/>
-      <c r="I190" s="12"/>
-      <c r="J190" s="35"/>
-      <c r="K190" s="12"/>
-      <c r="L190" s="12"/>
-      <c r="M190" s="12"/>
-      <c r="N190" s="12"/>
-      <c r="O190" s="12"/>
-      <c r="P190" s="12"/>
-    </row>
-    <row r="191" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="19"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="34"/>
-      <c r="F191" s="34"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="12"/>
-      <c r="J191" s="35"/>
-      <c r="K191" s="12"/>
-      <c r="L191" s="12"/>
-      <c r="M191" s="12"/>
-      <c r="N191" s="12"/>
-      <c r="O191" s="12"/>
-      <c r="P191" s="12"/>
-    </row>
-    <row r="192" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="51"/>
+      <c r="C190" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="33"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="29"/>
+      <c r="G190" s="30"/>
+      <c r="H190" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I190" s="31"/>
+      <c r="J190" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K190" s="27">
+        <v>0</v>
+      </c>
+      <c r="L190" s="27">
+        <v>0</v>
+      </c>
+      <c r="M190" s="27">
+        <v>0</v>
+      </c>
+      <c r="N190" s="27">
+        <v>0</v>
+      </c>
+      <c r="O190" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="12"/>
+      <c r="B191" s="49">
+        <v>37</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D191" s="14"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="32"/>
+      <c r="K191" s="18"/>
+      <c r="L191" s="18"/>
+      <c r="M191" s="18"/>
+      <c r="N191" s="18"/>
+      <c r="O191" s="18"/>
+    </row>
+    <row r="192" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="19"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="34"/>
-      <c r="F192" s="34"/>
-      <c r="G192" s="12"/>
-      <c r="H192" s="12"/>
-      <c r="I192" s="12"/>
-      <c r="J192" s="35"/>
-      <c r="K192" s="12"/>
-      <c r="L192" s="12"/>
-      <c r="M192" s="12"/>
-      <c r="N192" s="12"/>
-      <c r="O192" s="12"/>
-      <c r="P192" s="12"/>
+      <c r="B192" s="50"/>
+      <c r="C192" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192" s="33"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="29"/>
+      <c r="G192" s="30"/>
+      <c r="H192" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I192" s="31"/>
+      <c r="J192" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K192" s="27">
+        <v>0</v>
+      </c>
+      <c r="L192" s="27">
+        <v>0</v>
+      </c>
+      <c r="M192" s="27">
+        <v>0</v>
+      </c>
+      <c r="N192" s="27">
+        <v>0</v>
+      </c>
+      <c r="O192" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="19"/>
-      <c r="B193" s="12"/>
-      <c r="C193" s="12"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="34"/>
-      <c r="F193" s="34"/>
-      <c r="G193" s="12"/>
-      <c r="H193" s="12"/>
-      <c r="I193" s="12"/>
-      <c r="J193" s="35"/>
-      <c r="K193" s="12"/>
-      <c r="L193" s="12"/>
-      <c r="M193" s="12"/>
-      <c r="N193" s="12"/>
-      <c r="O193" s="12"/>
-      <c r="P193" s="12"/>
+      <c r="B193" s="50"/>
+      <c r="C193" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D193" s="33"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="29"/>
+      <c r="G193" s="30"/>
+      <c r="H193" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I193" s="31"/>
+      <c r="J193" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K193" s="27">
+        <v>0</v>
+      </c>
+      <c r="L193" s="27">
+        <v>0</v>
+      </c>
+      <c r="M193" s="27">
+        <v>0</v>
+      </c>
+      <c r="N193" s="27">
+        <v>0</v>
+      </c>
+      <c r="O193" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="34"/>
-      <c r="F194" s="34"/>
-      <c r="G194" s="12"/>
-      <c r="H194" s="12"/>
-      <c r="I194" s="12"/>
-      <c r="J194" s="35"/>
-      <c r="K194" s="12"/>
-      <c r="L194" s="12"/>
-      <c r="M194" s="12"/>
-      <c r="N194" s="12"/>
-      <c r="O194" s="12"/>
-      <c r="P194" s="12"/>
+      <c r="B194" s="50"/>
+      <c r="C194" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" s="33"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="29"/>
+      <c r="G194" s="30"/>
+      <c r="H194" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I194" s="31"/>
+      <c r="J194" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K194" s="27">
+        <v>0</v>
+      </c>
+      <c r="L194" s="27">
+        <v>0</v>
+      </c>
+      <c r="M194" s="27">
+        <v>0</v>
+      </c>
+      <c r="N194" s="27">
+        <v>0</v>
+      </c>
+      <c r="O194" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="19"/>
-      <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="34"/>
-      <c r="F195" s="34"/>
-      <c r="G195" s="12"/>
-      <c r="H195" s="12"/>
-      <c r="I195" s="12"/>
-      <c r="J195" s="35"/>
-      <c r="K195" s="12"/>
-      <c r="L195" s="12"/>
-      <c r="M195" s="12"/>
-      <c r="N195" s="12"/>
-      <c r="O195" s="12"/>
-      <c r="P195" s="12"/>
-    </row>
-    <row r="196" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="19"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="34"/>
-      <c r="F196" s="34"/>
-      <c r="G196" s="12"/>
-      <c r="H196" s="12"/>
-      <c r="I196" s="12"/>
-      <c r="J196" s="35"/>
-      <c r="K196" s="12"/>
-      <c r="L196" s="12"/>
-      <c r="M196" s="12"/>
-      <c r="N196" s="12"/>
-      <c r="O196" s="12"/>
-      <c r="P196" s="12"/>
+      <c r="B195" s="51"/>
+      <c r="C195" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="33"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="29"/>
+      <c r="G195" s="30"/>
+      <c r="H195" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I195" s="31"/>
+      <c r="J195" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K195" s="27">
+        <v>0</v>
+      </c>
+      <c r="L195" s="27">
+        <v>0</v>
+      </c>
+      <c r="M195" s="27">
+        <v>0</v>
+      </c>
+      <c r="N195" s="27">
+        <v>0</v>
+      </c>
+      <c r="O195" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="12"/>
+      <c r="B196" s="49">
+        <v>38</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D196" s="14"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" s="15"/>
+      <c r="I196" s="15"/>
+      <c r="J196" s="32"/>
+      <c r="K196" s="18"/>
+      <c r="L196" s="18"/>
+      <c r="M196" s="18"/>
+      <c r="N196" s="18"/>
+      <c r="O196" s="18"/>
     </row>
     <row r="197" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="19"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="34"/>
-      <c r="F197" s="34"/>
-      <c r="G197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
-      <c r="J197" s="35"/>
-      <c r="K197" s="12"/>
-      <c r="L197" s="12"/>
-      <c r="M197" s="12"/>
-      <c r="N197" s="12"/>
-      <c r="O197" s="12"/>
-      <c r="P197" s="12"/>
+      <c r="B197" s="50"/>
+      <c r="C197" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" s="33"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="29"/>
+      <c r="G197" s="30"/>
+      <c r="H197" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I197" s="31"/>
+      <c r="J197" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K197" s="27">
+        <v>0</v>
+      </c>
+      <c r="L197" s="27">
+        <v>0</v>
+      </c>
+      <c r="M197" s="27">
+        <v>0</v>
+      </c>
+      <c r="N197" s="27">
+        <v>0</v>
+      </c>
+      <c r="O197" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="19"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="34"/>
-      <c r="F198" s="34"/>
-      <c r="G198" s="12"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="35"/>
-      <c r="K198" s="12"/>
-      <c r="L198" s="12"/>
-      <c r="M198" s="12"/>
-      <c r="N198" s="12"/>
-      <c r="O198" s="12"/>
-      <c r="P198" s="12"/>
+      <c r="B198" s="50"/>
+      <c r="C198" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D198" s="33"/>
+      <c r="E198" s="28"/>
+      <c r="F198" s="29"/>
+      <c r="G198" s="30"/>
+      <c r="H198" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I198" s="31"/>
+      <c r="J198" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K198" s="27">
+        <v>0</v>
+      </c>
+      <c r="L198" s="27">
+        <v>0</v>
+      </c>
+      <c r="M198" s="27">
+        <v>0</v>
+      </c>
+      <c r="N198" s="27">
+        <v>0</v>
+      </c>
+      <c r="O198" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="19"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="34"/>
-      <c r="F199" s="34"/>
-      <c r="G199" s="12"/>
-      <c r="H199" s="12"/>
-      <c r="I199" s="12"/>
-      <c r="J199" s="35"/>
-      <c r="K199" s="12"/>
-      <c r="L199" s="12"/>
-      <c r="M199" s="12"/>
-      <c r="N199" s="12"/>
-      <c r="O199" s="12"/>
-      <c r="P199" s="12"/>
+      <c r="B199" s="50"/>
+      <c r="C199" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" s="33"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="29"/>
+      <c r="G199" s="30"/>
+      <c r="H199" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I199" s="31"/>
+      <c r="J199" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K199" s="27">
+        <v>0</v>
+      </c>
+      <c r="L199" s="27">
+        <v>0</v>
+      </c>
+      <c r="M199" s="27">
+        <v>0</v>
+      </c>
+      <c r="N199" s="27">
+        <v>0</v>
+      </c>
+      <c r="O199" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="19"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="34"/>
-      <c r="F200" s="34"/>
-      <c r="G200" s="12"/>
-      <c r="H200" s="12"/>
-      <c r="I200" s="12"/>
-      <c r="J200" s="35"/>
-      <c r="K200" s="12"/>
-      <c r="L200" s="12"/>
-      <c r="M200" s="12"/>
-      <c r="N200" s="12"/>
-      <c r="O200" s="12"/>
-      <c r="P200" s="12"/>
+      <c r="B200" s="51"/>
+      <c r="C200" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="33"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="29"/>
+      <c r="G200" s="30"/>
+      <c r="H200" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I200" s="31"/>
+      <c r="J200" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K200" s="27">
+        <v>0</v>
+      </c>
+      <c r="L200" s="27">
+        <v>0</v>
+      </c>
+      <c r="M200" s="27">
+        <v>0</v>
+      </c>
+      <c r="N200" s="27">
+        <v>0</v>
+      </c>
+      <c r="O200" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="19"/>
@@ -9133,34 +9556,459 @@
       <c r="O340" s="12"/>
       <c r="P340" s="12"/>
     </row>
-    <row r="341" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="19"/>
+      <c r="B341" s="12"/>
+      <c r="C341" s="12"/>
+      <c r="D341" s="12"/>
+      <c r="E341" s="34"/>
+      <c r="F341" s="34"/>
+      <c r="G341" s="12"/>
+      <c r="H341" s="12"/>
+      <c r="I341" s="12"/>
+      <c r="J341" s="35"/>
+      <c r="K341" s="12"/>
+      <c r="L341" s="12"/>
+      <c r="M341" s="12"/>
+      <c r="N341" s="12"/>
+      <c r="O341" s="12"/>
+      <c r="P341" s="12"/>
+    </row>
+    <row r="342" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="19"/>
+      <c r="B342" s="12"/>
+      <c r="C342" s="12"/>
+      <c r="D342" s="12"/>
+      <c r="E342" s="34"/>
+      <c r="F342" s="34"/>
+      <c r="G342" s="12"/>
+      <c r="H342" s="12"/>
+      <c r="I342" s="12"/>
+      <c r="J342" s="35"/>
+      <c r="K342" s="12"/>
+      <c r="L342" s="12"/>
+      <c r="M342" s="12"/>
+      <c r="N342" s="12"/>
+      <c r="O342" s="12"/>
+      <c r="P342" s="12"/>
+    </row>
+    <row r="343" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="19"/>
+      <c r="B343" s="12"/>
+      <c r="C343" s="12"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="34"/>
+      <c r="F343" s="34"/>
+      <c r="G343" s="12"/>
+      <c r="H343" s="12"/>
+      <c r="I343" s="12"/>
+      <c r="J343" s="35"/>
+      <c r="K343" s="12"/>
+      <c r="L343" s="12"/>
+      <c r="M343" s="12"/>
+      <c r="N343" s="12"/>
+      <c r="O343" s="12"/>
+      <c r="P343" s="12"/>
+    </row>
+    <row r="344" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="19"/>
+      <c r="B344" s="12"/>
+      <c r="C344" s="12"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="34"/>
+      <c r="F344" s="34"/>
+      <c r="G344" s="12"/>
+      <c r="H344" s="12"/>
+      <c r="I344" s="12"/>
+      <c r="J344" s="35"/>
+      <c r="K344" s="12"/>
+      <c r="L344" s="12"/>
+      <c r="M344" s="12"/>
+      <c r="N344" s="12"/>
+      <c r="O344" s="12"/>
+      <c r="P344" s="12"/>
+    </row>
+    <row r="345" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="19"/>
+      <c r="B345" s="12"/>
+      <c r="C345" s="12"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="34"/>
+      <c r="F345" s="34"/>
+      <c r="G345" s="12"/>
+      <c r="H345" s="12"/>
+      <c r="I345" s="12"/>
+      <c r="J345" s="35"/>
+      <c r="K345" s="12"/>
+      <c r="L345" s="12"/>
+      <c r="M345" s="12"/>
+      <c r="N345" s="12"/>
+      <c r="O345" s="12"/>
+      <c r="P345" s="12"/>
+    </row>
+    <row r="346" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="19"/>
+      <c r="B346" s="12"/>
+      <c r="C346" s="12"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="34"/>
+      <c r="F346" s="34"/>
+      <c r="G346" s="12"/>
+      <c r="H346" s="12"/>
+      <c r="I346" s="12"/>
+      <c r="J346" s="35"/>
+      <c r="K346" s="12"/>
+      <c r="L346" s="12"/>
+      <c r="M346" s="12"/>
+      <c r="N346" s="12"/>
+      <c r="O346" s="12"/>
+      <c r="P346" s="12"/>
+    </row>
+    <row r="347" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="19"/>
+      <c r="B347" s="12"/>
+      <c r="C347" s="12"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="34"/>
+      <c r="F347" s="34"/>
+      <c r="G347" s="12"/>
+      <c r="H347" s="12"/>
+      <c r="I347" s="12"/>
+      <c r="J347" s="35"/>
+      <c r="K347" s="12"/>
+      <c r="L347" s="12"/>
+      <c r="M347" s="12"/>
+      <c r="N347" s="12"/>
+      <c r="O347" s="12"/>
+      <c r="P347" s="12"/>
+    </row>
+    <row r="348" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="19"/>
+      <c r="B348" s="12"/>
+      <c r="C348" s="12"/>
+      <c r="D348" s="12"/>
+      <c r="E348" s="34"/>
+      <c r="F348" s="34"/>
+      <c r="G348" s="12"/>
+      <c r="H348" s="12"/>
+      <c r="I348" s="12"/>
+      <c r="J348" s="35"/>
+      <c r="K348" s="12"/>
+      <c r="L348" s="12"/>
+      <c r="M348" s="12"/>
+      <c r="N348" s="12"/>
+      <c r="O348" s="12"/>
+      <c r="P348" s="12"/>
+    </row>
+    <row r="349" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="19"/>
+      <c r="B349" s="12"/>
+      <c r="C349" s="12"/>
+      <c r="D349" s="12"/>
+      <c r="E349" s="34"/>
+      <c r="F349" s="34"/>
+      <c r="G349" s="12"/>
+      <c r="H349" s="12"/>
+      <c r="I349" s="12"/>
+      <c r="J349" s="35"/>
+      <c r="K349" s="12"/>
+      <c r="L349" s="12"/>
+      <c r="M349" s="12"/>
+      <c r="N349" s="12"/>
+      <c r="O349" s="12"/>
+      <c r="P349" s="12"/>
+    </row>
+    <row r="350" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="19"/>
+      <c r="B350" s="12"/>
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="34"/>
+      <c r="F350" s="34"/>
+      <c r="G350" s="12"/>
+      <c r="H350" s="12"/>
+      <c r="I350" s="12"/>
+      <c r="J350" s="35"/>
+      <c r="K350" s="12"/>
+      <c r="L350" s="12"/>
+      <c r="M350" s="12"/>
+      <c r="N350" s="12"/>
+      <c r="O350" s="12"/>
+      <c r="P350" s="12"/>
+    </row>
+    <row r="351" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="19"/>
+      <c r="B351" s="12"/>
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="34"/>
+      <c r="F351" s="34"/>
+      <c r="G351" s="12"/>
+      <c r="H351" s="12"/>
+      <c r="I351" s="12"/>
+      <c r="J351" s="35"/>
+      <c r="K351" s="12"/>
+      <c r="L351" s="12"/>
+      <c r="M351" s="12"/>
+      <c r="N351" s="12"/>
+      <c r="O351" s="12"/>
+      <c r="P351" s="12"/>
+    </row>
+    <row r="352" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="19"/>
+      <c r="B352" s="12"/>
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="34"/>
+      <c r="F352" s="34"/>
+      <c r="G352" s="12"/>
+      <c r="H352" s="12"/>
+      <c r="I352" s="12"/>
+      <c r="J352" s="35"/>
+      <c r="K352" s="12"/>
+      <c r="L352" s="12"/>
+      <c r="M352" s="12"/>
+      <c r="N352" s="12"/>
+      <c r="O352" s="12"/>
+      <c r="P352" s="12"/>
+    </row>
+    <row r="353" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="19"/>
+      <c r="B353" s="12"/>
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
+      <c r="E353" s="34"/>
+      <c r="F353" s="34"/>
+      <c r="G353" s="12"/>
+      <c r="H353" s="12"/>
+      <c r="I353" s="12"/>
+      <c r="J353" s="35"/>
+      <c r="K353" s="12"/>
+      <c r="L353" s="12"/>
+      <c r="M353" s="12"/>
+      <c r="N353" s="12"/>
+      <c r="O353" s="12"/>
+      <c r="P353" s="12"/>
+    </row>
+    <row r="354" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="19"/>
+      <c r="B354" s="12"/>
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
+      <c r="E354" s="34"/>
+      <c r="F354" s="34"/>
+      <c r="G354" s="12"/>
+      <c r="H354" s="12"/>
+      <c r="I354" s="12"/>
+      <c r="J354" s="35"/>
+      <c r="K354" s="12"/>
+      <c r="L354" s="12"/>
+      <c r="M354" s="12"/>
+      <c r="N354" s="12"/>
+      <c r="O354" s="12"/>
+      <c r="P354" s="12"/>
+    </row>
+    <row r="355" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="19"/>
+      <c r="B355" s="12"/>
+      <c r="C355" s="12"/>
+      <c r="D355" s="12"/>
+      <c r="E355" s="34"/>
+      <c r="F355" s="34"/>
+      <c r="G355" s="12"/>
+      <c r="H355" s="12"/>
+      <c r="I355" s="12"/>
+      <c r="J355" s="35"/>
+      <c r="K355" s="12"/>
+      <c r="L355" s="12"/>
+      <c r="M355" s="12"/>
+      <c r="N355" s="12"/>
+      <c r="O355" s="12"/>
+      <c r="P355" s="12"/>
+    </row>
+    <row r="356" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="19"/>
+      <c r="B356" s="12"/>
+      <c r="C356" s="12"/>
+      <c r="D356" s="12"/>
+      <c r="E356" s="34"/>
+      <c r="F356" s="34"/>
+      <c r="G356" s="12"/>
+      <c r="H356" s="12"/>
+      <c r="I356" s="12"/>
+      <c r="J356" s="35"/>
+      <c r="K356" s="12"/>
+      <c r="L356" s="12"/>
+      <c r="M356" s="12"/>
+      <c r="N356" s="12"/>
+      <c r="O356" s="12"/>
+      <c r="P356" s="12"/>
+    </row>
+    <row r="357" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="19"/>
+      <c r="B357" s="12"/>
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="34"/>
+      <c r="F357" s="34"/>
+      <c r="G357" s="12"/>
+      <c r="H357" s="12"/>
+      <c r="I357" s="12"/>
+      <c r="J357" s="35"/>
+      <c r="K357" s="12"/>
+      <c r="L357" s="12"/>
+      <c r="M357" s="12"/>
+      <c r="N357" s="12"/>
+      <c r="O357" s="12"/>
+      <c r="P357" s="12"/>
+    </row>
+    <row r="358" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="19"/>
+      <c r="B358" s="12"/>
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="34"/>
+      <c r="F358" s="34"/>
+      <c r="G358" s="12"/>
+      <c r="H358" s="12"/>
+      <c r="I358" s="12"/>
+      <c r="J358" s="35"/>
+      <c r="K358" s="12"/>
+      <c r="L358" s="12"/>
+      <c r="M358" s="12"/>
+      <c r="N358" s="12"/>
+      <c r="O358" s="12"/>
+      <c r="P358" s="12"/>
+    </row>
+    <row r="359" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="19"/>
+      <c r="B359" s="12"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="34"/>
+      <c r="F359" s="34"/>
+      <c r="G359" s="12"/>
+      <c r="H359" s="12"/>
+      <c r="I359" s="12"/>
+      <c r="J359" s="35"/>
+      <c r="K359" s="12"/>
+      <c r="L359" s="12"/>
+      <c r="M359" s="12"/>
+      <c r="N359" s="12"/>
+      <c r="O359" s="12"/>
+      <c r="P359" s="12"/>
+    </row>
+    <row r="360" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="19"/>
+      <c r="B360" s="12"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="34"/>
+      <c r="F360" s="34"/>
+      <c r="G360" s="12"/>
+      <c r="H360" s="12"/>
+      <c r="I360" s="12"/>
+      <c r="J360" s="35"/>
+      <c r="K360" s="12"/>
+      <c r="L360" s="12"/>
+      <c r="M360" s="12"/>
+      <c r="N360" s="12"/>
+      <c r="O360" s="12"/>
+      <c r="P360" s="12"/>
+    </row>
+    <row r="361" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="19"/>
+      <c r="B361" s="12"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="34"/>
+      <c r="F361" s="34"/>
+      <c r="G361" s="12"/>
+      <c r="H361" s="12"/>
+      <c r="I361" s="12"/>
+      <c r="J361" s="35"/>
+      <c r="K361" s="12"/>
+      <c r="L361" s="12"/>
+      <c r="M361" s="12"/>
+      <c r="N361" s="12"/>
+      <c r="O361" s="12"/>
+      <c r="P361" s="12"/>
+    </row>
+    <row r="362" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="19"/>
+      <c r="B362" s="12"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="34"/>
+      <c r="F362" s="34"/>
+      <c r="G362" s="12"/>
+      <c r="H362" s="12"/>
+      <c r="I362" s="12"/>
+      <c r="J362" s="35"/>
+      <c r="K362" s="12"/>
+      <c r="L362" s="12"/>
+      <c r="M362" s="12"/>
+      <c r="N362" s="12"/>
+      <c r="O362" s="12"/>
+      <c r="P362" s="12"/>
+    </row>
+    <row r="363" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="19"/>
+      <c r="B363" s="12"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="34"/>
+      <c r="F363" s="34"/>
+      <c r="G363" s="12"/>
+      <c r="H363" s="12"/>
+      <c r="I363" s="12"/>
+      <c r="J363" s="35"/>
+      <c r="K363" s="12"/>
+      <c r="L363" s="12"/>
+      <c r="M363" s="12"/>
+      <c r="N363" s="12"/>
+      <c r="O363" s="12"/>
+      <c r="P363" s="12"/>
+    </row>
+    <row r="364" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="19"/>
+      <c r="B364" s="12"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="34"/>
+      <c r="F364" s="34"/>
+      <c r="G364" s="12"/>
+      <c r="H364" s="12"/>
+      <c r="I364" s="12"/>
+      <c r="J364" s="35"/>
+      <c r="K364" s="12"/>
+      <c r="L364" s="12"/>
+      <c r="M364" s="12"/>
+      <c r="N364" s="12"/>
+      <c r="O364" s="12"/>
+      <c r="P364" s="12"/>
+    </row>
+    <row r="365" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="19"/>
+      <c r="B365" s="12"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="34"/>
+      <c r="F365" s="34"/>
+      <c r="G365" s="12"/>
+      <c r="H365" s="12"/>
+      <c r="I365" s="12"/>
+      <c r="J365" s="35"/>
+      <c r="K365" s="12"/>
+      <c r="L365" s="12"/>
+      <c r="M365" s="12"/>
+      <c r="N365" s="12"/>
+      <c r="O365" s="12"/>
+      <c r="P365" s="12"/>
+    </row>
+    <row r="366" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9825,17 +10673,65 @@
     <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1034" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1035" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1036" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1037" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1038" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1039" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1040" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1041" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1042" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1043" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1044" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1045" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1046" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1047" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1048" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1050" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1051" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1052" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1053" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1054" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1055" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1056" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1057" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="39">
+    <mergeCell ref="B171:B175"/>
+    <mergeCell ref="B196:B200"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="B191:B195"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="B181:B185"/>
+    <mergeCell ref="B141:B145"/>
+    <mergeCell ref="B146:B150"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B30"/>
     <mergeCell ref="B96:B100"/>
     <mergeCell ref="B76:B80"/>
     <mergeCell ref="B91:B95"/>
     <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B176:B180"/>
     <mergeCell ref="B136:B140"/>
     <mergeCell ref="B131:B135"/>
-    <mergeCell ref="B141:B145"/>
-    <mergeCell ref="B146:B150"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B166:B170"/>
     <mergeCell ref="B51:B55"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="B61:B65"/>
@@ -9843,27 +10739,10 @@
     <mergeCell ref="B71:B75"/>
     <mergeCell ref="B81:B85"/>
     <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B161:B165"/>
-    <mergeCell ref="B166:B170"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="B156:B160"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items (To Do, Progress, Blocked, Done, or Cancelled)" sqref="H117:H120 H107:H110 H17:H20 H22:H25 H92:H100 H47:H50 H52:H55 H57:H60 H62:H65 H72:H75 H12:H15 H167:H170 H102:H105 H122:H125 H127:H130 H87:H90 H142:H145 H147:H150 H132:H135 H137:H140 H162:H165 H67:H70 H157:H160 H112:H115 H7:H10 H77:H80 H27:H30 H82:H85 H152:H155 H32:H35 H37:H40 H42:H45" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items (To Do, Progress, Blocked, Done, or Cancelled)" sqref="H117:H120 H107:H110 H17:H20 H22:H25 H92:H100 H47:H50 H52:H55 H57:H60 H62:H65 H72:H75 H12:H15 H192:H195 H102:H105 H122:H125 H127:H130 H87:H90 H147:H150 H162:H165 H132:H135 H42:H45 H187:H190 H67:H70 H182:H185 H112:H115 H7:H10 H77:H80 H27:H30 H82:H85 H177:H180 H32:H35 H37:H40 H137:H140 H142:H145 H152:H155 H157:H160 H167:H170 H172:H175 H197:H200" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"To Do,Progress,Blocked,Done,Cancelled"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fazli\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09805D7D-99D3-4CAF-86ED-9B3F994B13BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B240FF8-F886-4CD8-8714-259ED8BC82D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -193,9 +193,6 @@
     <t>As an admin I want to be able to acess the menu, raw materials list, waiters list, and customers in one window</t>
   </si>
   <si>
-    <t>3 Days</t>
-  </si>
-  <si>
     <t>As an admin I want to be able to access customers reservations list So, I can delete customers from the list</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>As a waiter, I want to be able to see the menu so I can see which dishes are available everyday</t>
+  </si>
+  <si>
+    <t>4 Days</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,10 +544,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,8 +768,8 @@
   </sheetPr>
   <dimension ref="A1:Q1057"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A161" zoomScale="105" workbookViewId="0">
-      <selection activeCell="L196" sqref="L196"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -921,7 +921,7 @@
     </row>
     <row r="6" spans="1:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="49">
+      <c r="B6" s="50">
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -946,7 +946,7 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
@@ -979,7 +979,7 @@
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
-      <c r="B9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="20" t="s">
         <v>24</v>
       </c>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
-      <c r="B10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="11" spans="1:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
-      <c r="B11" s="49">
+      <c r="B11" s="50">
         <v>2</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -1103,7 +1103,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
-      <c r="B12" s="50"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="33" t="s">
         <v>20</v>
       </c>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="50"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="33" t="s">
         <v>23</v>
       </c>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="33" t="s">
         <v>24</v>
       </c>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="51"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="33" t="s">
         <v>25</v>
       </c>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="16" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="49">
+      <c r="B16" s="50">
         <v>3</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1260,7 +1260,7 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="50"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="20" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="20" t="s">
         <v>23</v>
       </c>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="20" t="s">
         <v>24</v>
       </c>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="20" t="s">
         <v>25</v>
       </c>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="21" spans="1:15" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
-      <c r="B21" s="49">
+      <c r="B21" s="50">
         <v>4</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1417,7 +1417,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="50"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="20" t="s">
         <v>20</v>
       </c>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="20" t="s">
         <v>23</v>
       </c>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="20" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="51"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="20" t="s">
         <v>25</v>
       </c>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="26" spans="1:15" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
-      <c r="B26" s="49">
+      <c r="B26" s="50">
         <v>5</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -1574,7 +1574,7 @@
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="20" t="s">
         <v>20</v>
       </c>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="20" t="s">
         <v>23</v>
       </c>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-      <c r="B29" s="50"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="20" t="s">
         <v>24</v>
       </c>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
-      <c r="B30" s="51"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="20" t="s">
         <v>25</v>
       </c>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="31" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
-      <c r="B31" s="53">
+      <c r="B31" s="49">
         <v>6</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -1731,7 +1731,7 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
-      <c r="B32" s="53"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="33" t="s">
         <v>20</v>
       </c>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
-      <c r="B33" s="53"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="33" t="s">
         <v>23</v>
       </c>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="33" t="s">
         <v>24</v>
       </c>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
-      <c r="B35" s="53"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="33" t="s">
         <v>25</v>
       </c>
@@ -1863,11 +1863,11 @@
     </row>
     <row r="36" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
-      <c r="B36" s="49">
+      <c r="B36" s="50">
         <v>7</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>30</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37" s="50"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="33" t="s">
         <v>20</v>
       </c>
@@ -1897,11 +1897,11 @@
       <c r="F37" s="29"/>
       <c r="G37" s="30"/>
       <c r="H37" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K37" s="27">
         <v>50</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="33" t="s">
         <v>23</v>
       </c>
@@ -1930,11 +1930,11 @@
       <c r="F38" s="29"/>
       <c r="G38" s="30"/>
       <c r="H38" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K38" s="27">
         <v>50</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="50"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="33" t="s">
         <v>24</v>
       </c>
@@ -1963,11 +1963,11 @@
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
       <c r="H39" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K39" s="27">
         <v>50</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
-      <c r="B40" s="51"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="33" t="s">
         <v>25</v>
       </c>
@@ -1996,11 +1996,11 @@
       <c r="F40" s="29"/>
       <c r="G40" s="30"/>
       <c r="H40" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I40" s="31"/>
       <c r="J40" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K40" s="27">
         <v>50</v>
@@ -2020,11 +2020,11 @@
     </row>
     <row r="41" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
-      <c r="B41" s="49">
+      <c r="B41" s="50">
         <v>8</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>30</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
-      <c r="B42" s="50"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="33" t="s">
         <v>20</v>
       </c>
@@ -2054,11 +2054,11 @@
       <c r="F42" s="29"/>
       <c r="G42" s="30"/>
       <c r="H42" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I42" s="31"/>
       <c r="J42" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K42" s="27">
         <v>50</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
-      <c r="B43" s="50"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="33" t="s">
         <v>23</v>
       </c>
@@ -2087,11 +2087,11 @@
       <c r="F43" s="29"/>
       <c r="G43" s="30"/>
       <c r="H43" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I43" s="31"/>
       <c r="J43" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K43" s="27">
         <v>50</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44" s="50"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="33" t="s">
         <v>24</v>
       </c>
@@ -2120,11 +2120,11 @@
       <c r="F44" s="29"/>
       <c r="G44" s="30"/>
       <c r="H44" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I44" s="31"/>
       <c r="J44" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K44" s="27">
         <v>50</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
-      <c r="B45" s="51"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="33" t="s">
         <v>25</v>
       </c>
@@ -2153,11 +2153,11 @@
       <c r="F45" s="29"/>
       <c r="G45" s="30"/>
       <c r="H45" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I45" s="31"/>
       <c r="J45" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K45" s="27">
         <v>50</v>
@@ -2177,11 +2177,11 @@
     </row>
     <row r="46" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
-      <c r="B46" s="49">
+      <c r="B46" s="50">
         <v>9</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>30</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
-      <c r="B47" s="50"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="20" t="s">
         <v>20</v>
       </c>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
-      <c r="B48" s="50"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="20" t="s">
         <v>23</v>
       </c>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
-      <c r="B49" s="50"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="20" t="s">
         <v>24</v>
       </c>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
-      <c r="B50" s="51"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="20" t="s">
         <v>25</v>
       </c>
@@ -2334,11 +2334,11 @@
     </row>
     <row r="51" spans="1:15" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
-      <c r="B51" s="49">
+      <c r="B51" s="50">
         <v>10</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>30</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
-      <c r="B52" s="50"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="20" t="s">
         <v>20</v>
       </c>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
-      <c r="B53" s="50"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="20" t="s">
         <v>23</v>
       </c>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
-      <c r="B54" s="50"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="20" t="s">
         <v>24</v>
       </c>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
-      <c r="B55" s="51"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="20" t="s">
         <v>25</v>
       </c>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="56" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
-      <c r="B56" s="49">
+      <c r="B56" s="50">
         <v>11</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -2516,7 +2516,7 @@
     </row>
     <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
-      <c r="B57" s="50"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="20" t="s">
         <v>20</v>
       </c>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
-      <c r="B58" s="50"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="20" t="s">
         <v>23</v>
       </c>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
-      <c r="B59" s="50"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="20" t="s">
         <v>24</v>
       </c>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
-      <c r="B60" s="51"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="20" t="s">
         <v>25</v>
       </c>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="61" spans="1:15" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
-      <c r="B61" s="49">
+      <c r="B61" s="50">
         <v>12</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -2679,7 +2679,7 @@
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
-      <c r="B62" s="50"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="20" t="s">
         <v>20</v>
       </c>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
-      <c r="B63" s="50"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="20" t="s">
         <v>23</v>
       </c>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
-      <c r="B64" s="50"/>
+      <c r="B64" s="51"/>
       <c r="C64" s="20" t="s">
         <v>24</v>
       </c>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
-      <c r="B65" s="51"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="20" t="s">
         <v>25</v>
       </c>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="66" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
-      <c r="B66" s="49">
+      <c r="B66" s="50">
         <v>13</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -2842,7 +2842,7 @@
     </row>
     <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
-      <c r="B67" s="50"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="20" t="s">
         <v>20</v>
       </c>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
-      <c r="B68" s="50"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="20" t="s">
         <v>23</v>
       </c>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
-      <c r="B69" s="50"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="20" t="s">
         <v>24</v>
       </c>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
-      <c r="B70" s="51"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="20" t="s">
         <v>25</v>
       </c>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="71" spans="1:15" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
-      <c r="B71" s="49">
+      <c r="B71" s="50">
         <v>14</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -3005,7 +3005,7 @@
     </row>
     <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
-      <c r="B72" s="50"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="20" t="s">
         <v>20</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="I72" s="31"/>
       <c r="J72" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
-      <c r="B73" s="50"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="20" t="s">
         <v>23</v>
       </c>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="I73" s="31"/>
       <c r="J73" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
-      <c r="B74" s="50"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="20" t="s">
         <v>24</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="I74" s="31"/>
       <c r="J74" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K74" s="27"/>
       <c r="L74" s="27"/>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
-      <c r="B75" s="51"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="20" t="s">
         <v>25</v>
       </c>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="I75" s="31"/>
       <c r="J75" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K75" s="27"/>
       <c r="L75" s="27"/>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="76" spans="1:15" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12"/>
-      <c r="B76" s="49">
+      <c r="B76" s="50">
         <v>15</v>
       </c>
       <c r="C76" s="13" t="s">
@@ -3146,7 +3146,7 @@
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
-      <c r="B77" s="50"/>
+      <c r="B77" s="51"/>
       <c r="C77" s="20" t="s">
         <v>20</v>
       </c>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
-      <c r="B78" s="50"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="20" t="s">
         <v>23</v>
       </c>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
-      <c r="B79" s="50"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="20" t="s">
         <v>24</v>
       </c>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
-      <c r="B80" s="51"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="20" t="s">
         <v>25</v>
       </c>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="81" spans="1:15" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12"/>
-      <c r="B81" s="52">
+      <c r="B81" s="48">
         <v>16</v>
       </c>
       <c r="C81" s="13" t="s">
@@ -3303,7 +3303,7 @@
     </row>
     <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
-      <c r="B82" s="52"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="33" t="s">
         <v>20</v>
       </c>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
-      <c r="B83" s="52"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="33" t="s">
         <v>23</v>
       </c>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
-      <c r="B84" s="52"/>
+      <c r="B84" s="48"/>
       <c r="C84" s="33" t="s">
         <v>24</v>
       </c>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
-      <c r="B85" s="52"/>
+      <c r="B85" s="48"/>
       <c r="C85" s="33" t="s">
         <v>25</v>
       </c>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="86" spans="1:15" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12"/>
-      <c r="B86" s="53">
+      <c r="B86" s="49">
         <v>17</v>
       </c>
       <c r="C86" s="13" t="s">
@@ -3460,7 +3460,7 @@
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
-      <c r="B87" s="53"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="33" t="s">
         <v>20</v>
       </c>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
-      <c r="B88" s="53"/>
+      <c r="B88" s="49"/>
       <c r="C88" s="33" t="s">
         <v>23</v>
       </c>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19"/>
-      <c r="B89" s="53"/>
+      <c r="B89" s="49"/>
       <c r="C89" s="33" t="s">
         <v>24</v>
       </c>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
-      <c r="B90" s="53"/>
+      <c r="B90" s="49"/>
       <c r="C90" s="33" t="s">
         <v>25</v>
       </c>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="91" spans="1:15" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12"/>
-      <c r="B91" s="49">
+      <c r="B91" s="50">
         <v>18</v>
       </c>
       <c r="C91" s="13" t="s">
@@ -3617,7 +3617,7 @@
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
-      <c r="B92" s="50"/>
+      <c r="B92" s="51"/>
       <c r="C92" s="20" t="s">
         <v>20</v>
       </c>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
-      <c r="B93" s="50"/>
+      <c r="B93" s="51"/>
       <c r="C93" s="20" t="s">
         <v>23</v>
       </c>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
-      <c r="B94" s="50"/>
+      <c r="B94" s="51"/>
       <c r="C94" s="20" t="s">
         <v>24</v>
       </c>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
-      <c r="B95" s="51"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="20" t="s">
         <v>25</v>
       </c>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="96" spans="1:15" s="47" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
-      <c r="B96" s="48">
+      <c r="B96" s="53">
         <v>19</v>
       </c>
       <c r="C96" s="39" t="s">
@@ -3772,7 +3772,7 @@
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19"/>
-      <c r="B97" s="48"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="33" t="s">
         <v>20</v>
       </c>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="I97" s="31"/>
       <c r="J97" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K97" s="27">
         <v>50</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
-      <c r="B98" s="48"/>
+      <c r="B98" s="53"/>
       <c r="C98" s="33" t="s">
         <v>23</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="I98" s="31"/>
       <c r="J98" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K98" s="27">
         <v>50</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19"/>
-      <c r="B99" s="48"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="33" t="s">
         <v>24</v>
       </c>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="I99" s="31"/>
       <c r="J99" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K99" s="27">
         <v>50</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19"/>
-      <c r="B100" s="48"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="33" t="s">
         <v>25</v>
       </c>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="I100" s="31"/>
       <c r="J100" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K100" s="27">
         <v>50</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="101" spans="1:15" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12"/>
-      <c r="B101" s="49">
+      <c r="B101" s="50">
         <v>20</v>
       </c>
       <c r="C101" s="13" t="s">
@@ -3929,7 +3929,7 @@
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19"/>
-      <c r="B102" s="50"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="33" t="s">
         <v>20</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="I102" s="31"/>
       <c r="J102" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K102" s="27">
         <v>50</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19"/>
-      <c r="B103" s="50"/>
+      <c r="B103" s="51"/>
       <c r="C103" s="33" t="s">
         <v>23</v>
       </c>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="I103" s="31"/>
       <c r="J103" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K103" s="27">
         <v>50</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19"/>
-      <c r="B104" s="50"/>
+      <c r="B104" s="51"/>
       <c r="C104" s="33" t="s">
         <v>24</v>
       </c>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="I104" s="31"/>
       <c r="J104" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K104" s="27">
         <v>50</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19"/>
-      <c r="B105" s="51"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="33" t="s">
         <v>25</v>
       </c>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="I105" s="31"/>
       <c r="J105" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K105" s="27">
         <v>50</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="106" spans="1:15" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12"/>
-      <c r="B106" s="49">
+      <c r="B106" s="50">
         <v>21</v>
       </c>
       <c r="C106" s="13" t="s">
@@ -4086,7 +4086,7 @@
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
-      <c r="B107" s="50"/>
+      <c r="B107" s="51"/>
       <c r="C107" s="33" t="s">
         <v>20</v>
       </c>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="I107" s="31"/>
       <c r="J107" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K107" s="27">
         <v>50</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19"/>
-      <c r="B108" s="50"/>
+      <c r="B108" s="51"/>
       <c r="C108" s="33" t="s">
         <v>23</v>
       </c>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="I108" s="31"/>
       <c r="J108" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K108" s="27">
         <v>50</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19"/>
-      <c r="B109" s="50"/>
+      <c r="B109" s="51"/>
       <c r="C109" s="33" t="s">
         <v>24</v>
       </c>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="I109" s="31"/>
       <c r="J109" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K109" s="27">
         <v>50</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19"/>
-      <c r="B110" s="51"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="33" t="s">
         <v>25</v>
       </c>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="I110" s="31"/>
       <c r="J110" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K110" s="27">
         <v>50</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="111" spans="1:15" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12"/>
-      <c r="B111" s="49">
+      <c r="B111" s="50">
         <v>22</v>
       </c>
       <c r="C111" s="13" t="s">
@@ -4243,7 +4243,7 @@
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19"/>
-      <c r="B112" s="50"/>
+      <c r="B112" s="51"/>
       <c r="C112" s="20" t="s">
         <v>20</v>
       </c>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="I112" s="31"/>
       <c r="J112" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K112" s="27">
         <v>0</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19"/>
-      <c r="B113" s="50"/>
+      <c r="B113" s="51"/>
       <c r="C113" s="20" t="s">
         <v>23</v>
       </c>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I113" s="31"/>
       <c r="J113" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K113" s="27">
         <v>0</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19"/>
-      <c r="B114" s="50"/>
+      <c r="B114" s="51"/>
       <c r="C114" s="20" t="s">
         <v>24</v>
       </c>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="I114" s="31"/>
       <c r="J114" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K114" s="27">
         <v>0</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19"/>
-      <c r="B115" s="51"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="20" t="s">
         <v>25</v>
       </c>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="I115" s="31"/>
       <c r="J115" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K115" s="27">
         <v>0</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="116" spans="1:15" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12"/>
-      <c r="B116" s="49">
+      <c r="B116" s="50">
         <v>23</v>
       </c>
       <c r="C116" s="13" t="s">
@@ -4400,7 +4400,7 @@
     </row>
     <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19"/>
-      <c r="B117" s="50"/>
+      <c r="B117" s="51"/>
       <c r="C117" s="33" t="s">
         <v>20</v>
       </c>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="I117" s="31"/>
       <c r="J117" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K117" s="27">
         <v>0</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19"/>
-      <c r="B118" s="50"/>
+      <c r="B118" s="51"/>
       <c r="C118" s="33" t="s">
         <v>23</v>
       </c>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="I118" s="31"/>
       <c r="J118" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K118" s="27">
         <v>0</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19"/>
-      <c r="B119" s="50"/>
+      <c r="B119" s="51"/>
       <c r="C119" s="33" t="s">
         <v>24</v>
       </c>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="I119" s="31"/>
       <c r="J119" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K119" s="27">
         <v>0</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="19"/>
-      <c r="B120" s="51"/>
+      <c r="B120" s="52"/>
       <c r="C120" s="33" t="s">
         <v>25</v>
       </c>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="I120" s="31"/>
       <c r="J120" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K120" s="27">
         <v>0</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="121" spans="1:15" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12"/>
-      <c r="B121" s="49">
+      <c r="B121" s="50">
         <v>24</v>
       </c>
       <c r="C121" s="13" t="s">
@@ -4557,7 +4557,7 @@
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
-      <c r="B122" s="50"/>
+      <c r="B122" s="51"/>
       <c r="C122" s="20" t="s">
         <v>20</v>
       </c>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="I122" s="31"/>
       <c r="J122" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K122" s="27">
         <v>20</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="19"/>
-      <c r="B123" s="50"/>
+      <c r="B123" s="51"/>
       <c r="C123" s="20" t="s">
         <v>23</v>
       </c>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="I123" s="31"/>
       <c r="J123" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K123" s="27">
         <v>0</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="19"/>
-      <c r="B124" s="50"/>
+      <c r="B124" s="51"/>
       <c r="C124" s="20" t="s">
         <v>24</v>
       </c>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="I124" s="31"/>
       <c r="J124" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K124" s="27">
         <v>0</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19"/>
-      <c r="B125" s="51"/>
+      <c r="B125" s="52"/>
       <c r="C125" s="20" t="s">
         <v>25</v>
       </c>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="I125" s="31"/>
       <c r="J125" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K125" s="27">
         <v>0</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="126" spans="1:15" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12"/>
-      <c r="B126" s="49">
+      <c r="B126" s="50">
         <v>25</v>
       </c>
       <c r="C126" s="13" t="s">
@@ -4714,7 +4714,7 @@
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19"/>
-      <c r="B127" s="50"/>
+      <c r="B127" s="51"/>
       <c r="C127" s="20" t="s">
         <v>20</v>
       </c>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="I127" s="31"/>
       <c r="J127" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K127" s="27">
         <v>0</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19"/>
-      <c r="B128" s="50"/>
+      <c r="B128" s="51"/>
       <c r="C128" s="20" t="s">
         <v>23</v>
       </c>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="I128" s="31"/>
       <c r="J128" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K128" s="27">
         <v>0</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19"/>
-      <c r="B129" s="50"/>
+      <c r="B129" s="51"/>
       <c r="C129" s="20" t="s">
         <v>24</v>
       </c>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="I129" s="31"/>
       <c r="J129" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K129" s="27">
         <v>0</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19"/>
-      <c r="B130" s="51"/>
+      <c r="B130" s="52"/>
       <c r="C130" s="20" t="s">
         <v>25</v>
       </c>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="I130" s="31"/>
       <c r="J130" s="27" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K130" s="27">
         <v>0</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="131" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12"/>
-      <c r="B131" s="49">
+      <c r="B131" s="50">
         <v>26</v>
       </c>
       <c r="C131" s="13" t="s">
@@ -4871,7 +4871,7 @@
     </row>
     <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="19"/>
-      <c r="B132" s="50"/>
+      <c r="B132" s="51"/>
       <c r="C132" s="33" t="s">
         <v>20</v>
       </c>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="I132" s="31"/>
       <c r="J132" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K132" s="27">
         <v>0</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19"/>
-      <c r="B133" s="50"/>
+      <c r="B133" s="51"/>
       <c r="C133" s="33" t="s">
         <v>23</v>
       </c>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="I133" s="31"/>
       <c r="J133" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K133" s="27">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19"/>
-      <c r="B134" s="50"/>
+      <c r="B134" s="51"/>
       <c r="C134" s="33" t="s">
         <v>24</v>
       </c>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="I134" s="31"/>
       <c r="J134" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K134" s="27">
         <v>0</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19"/>
-      <c r="B135" s="51"/>
+      <c r="B135" s="52"/>
       <c r="C135" s="33" t="s">
         <v>25</v>
       </c>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="I135" s="31"/>
       <c r="J135" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K135" s="27">
         <v>0</v>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="136" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12"/>
-      <c r="B136" s="49">
+      <c r="B136" s="50">
         <v>27</v>
       </c>
       <c r="C136" s="13" t="s">
@@ -5028,7 +5028,7 @@
     </row>
     <row r="137" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19"/>
-      <c r="B137" s="50"/>
+      <c r="B137" s="51"/>
       <c r="C137" s="33" t="s">
         <v>20</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="I137" s="31"/>
       <c r="J137" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K137" s="27">
         <v>0</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="19"/>
-      <c r="B138" s="50"/>
+      <c r="B138" s="51"/>
       <c r="C138" s="33" t="s">
         <v>23</v>
       </c>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="I138" s="31"/>
       <c r="J138" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K138" s="27">
         <v>0</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19"/>
-      <c r="B139" s="50"/>
+      <c r="B139" s="51"/>
       <c r="C139" s="33" t="s">
         <v>24</v>
       </c>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="I139" s="31"/>
       <c r="J139" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K139" s="27">
         <v>0</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="19"/>
-      <c r="B140" s="51"/>
+      <c r="B140" s="52"/>
       <c r="C140" s="33" t="s">
         <v>25</v>
       </c>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="I140" s="31"/>
       <c r="J140" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K140" s="27">
         <v>0</v>
@@ -5160,11 +5160,11 @@
     </row>
     <row r="141" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12"/>
-      <c r="B141" s="49">
+      <c r="B141" s="50">
         <v>28</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>30</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="19"/>
-      <c r="B142" s="50"/>
+      <c r="B142" s="51"/>
       <c r="C142" s="33" t="s">
         <v>20</v>
       </c>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="I142" s="31"/>
       <c r="J142" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K142" s="27">
         <v>0</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="143" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19"/>
-      <c r="B143" s="50"/>
+      <c r="B143" s="51"/>
       <c r="C143" s="33" t="s">
         <v>23</v>
       </c>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="I143" s="31"/>
       <c r="J143" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K143" s="27">
         <v>0</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="144" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="19"/>
-      <c r="B144" s="50"/>
+      <c r="B144" s="51"/>
       <c r="C144" s="33" t="s">
         <v>24</v>
       </c>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="I144" s="31"/>
       <c r="J144" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K144" s="27">
         <v>0</v>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19"/>
-      <c r="B145" s="51"/>
+      <c r="B145" s="52"/>
       <c r="C145" s="33" t="s">
         <v>25</v>
       </c>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="I145" s="31"/>
       <c r="J145" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K145" s="27">
         <v>0</v>
@@ -5317,11 +5317,11 @@
     </row>
     <row r="146" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12"/>
-      <c r="B146" s="49">
+      <c r="B146" s="50">
         <v>29</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D146" s="14" t="s">
         <v>30</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="19"/>
-      <c r="B147" s="50"/>
+      <c r="B147" s="51"/>
       <c r="C147" s="33" t="s">
         <v>20</v>
       </c>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="I147" s="31"/>
       <c r="J147" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K147" s="27">
         <v>0</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="19"/>
-      <c r="B148" s="50"/>
+      <c r="B148" s="51"/>
       <c r="C148" s="33" t="s">
         <v>23</v>
       </c>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="I148" s="31"/>
       <c r="J148" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K148" s="27">
         <v>0</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19"/>
-      <c r="B149" s="50"/>
+      <c r="B149" s="51"/>
       <c r="C149" s="33" t="s">
         <v>24</v>
       </c>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="I149" s="31"/>
       <c r="J149" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K149" s="27">
         <v>0</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="19"/>
-      <c r="B150" s="51"/>
+      <c r="B150" s="52"/>
       <c r="C150" s="33" t="s">
         <v>25</v>
       </c>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="I150" s="31"/>
       <c r="J150" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K150" s="27">
         <v>0</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="151" spans="1:15" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12"/>
-      <c r="B151" s="49">
+      <c r="B151" s="50">
         <v>30</v>
       </c>
       <c r="C151" s="13" t="s">
@@ -5499,7 +5499,7 @@
     </row>
     <row r="152" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="19"/>
-      <c r="B152" s="50"/>
+      <c r="B152" s="51"/>
       <c r="C152" s="33" t="s">
         <v>20</v>
       </c>
@@ -5508,11 +5508,11 @@
       <c r="F152" s="29"/>
       <c r="G152" s="30"/>
       <c r="H152" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I152" s="31"/>
       <c r="J152" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K152" s="27">
         <v>20</v>
@@ -5532,7 +5532,7 @@
     </row>
     <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="19"/>
-      <c r="B153" s="50"/>
+      <c r="B153" s="51"/>
       <c r="C153" s="33" t="s">
         <v>23</v>
       </c>
@@ -5541,11 +5541,11 @@
       <c r="F153" s="29"/>
       <c r="G153" s="30"/>
       <c r="H153" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I153" s="31"/>
       <c r="J153" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K153" s="27">
         <v>0</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="154" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="19"/>
-      <c r="B154" s="50"/>
+      <c r="B154" s="51"/>
       <c r="C154" s="33" t="s">
         <v>24</v>
       </c>
@@ -5574,11 +5574,11 @@
       <c r="F154" s="29"/>
       <c r="G154" s="30"/>
       <c r="H154" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I154" s="31"/>
       <c r="J154" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K154" s="27">
         <v>0</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19"/>
-      <c r="B155" s="51"/>
+      <c r="B155" s="52"/>
       <c r="C155" s="33" t="s">
         <v>25</v>
       </c>
@@ -5607,11 +5607,11 @@
       <c r="F155" s="29"/>
       <c r="G155" s="30"/>
       <c r="H155" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I155" s="31"/>
       <c r="J155" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K155" s="27">
         <v>0</v>
@@ -5631,11 +5631,11 @@
     </row>
     <row r="156" spans="1:15" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12"/>
-      <c r="B156" s="49">
+      <c r="B156" s="50">
         <v>31</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>50</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="157" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="19"/>
-      <c r="B157" s="50"/>
+      <c r="B157" s="51"/>
       <c r="C157" s="33" t="s">
         <v>20</v>
       </c>
@@ -5665,11 +5665,11 @@
       <c r="F157" s="29"/>
       <c r="G157" s="30"/>
       <c r="H157" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I157" s="31"/>
       <c r="J157" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K157" s="27">
         <v>20</v>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="158" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="19"/>
-      <c r="B158" s="50"/>
+      <c r="B158" s="51"/>
       <c r="C158" s="33" t="s">
         <v>23</v>
       </c>
@@ -5698,11 +5698,11 @@
       <c r="F158" s="29"/>
       <c r="G158" s="30"/>
       <c r="H158" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I158" s="31"/>
       <c r="J158" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K158" s="27">
         <v>0</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="159" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19"/>
-      <c r="B159" s="50"/>
+      <c r="B159" s="51"/>
       <c r="C159" s="33" t="s">
         <v>24</v>
       </c>
@@ -5731,11 +5731,11 @@
       <c r="F159" s="29"/>
       <c r="G159" s="30"/>
       <c r="H159" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I159" s="31"/>
       <c r="J159" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K159" s="27">
         <v>0</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="160" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="19"/>
-      <c r="B160" s="51"/>
+      <c r="B160" s="52"/>
       <c r="C160" s="33" t="s">
         <v>25</v>
       </c>
@@ -5764,11 +5764,11 @@
       <c r="F160" s="29"/>
       <c r="G160" s="30"/>
       <c r="H160" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I160" s="31"/>
       <c r="J160" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K160" s="27">
         <v>0</v>
@@ -5788,11 +5788,11 @@
     </row>
     <row r="161" spans="1:15" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12"/>
-      <c r="B161" s="49">
+      <c r="B161" s="50">
         <v>32</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>50</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="162" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="19"/>
-      <c r="B162" s="50"/>
+      <c r="B162" s="51"/>
       <c r="C162" s="33" t="s">
         <v>20</v>
       </c>
@@ -5822,11 +5822,11 @@
       <c r="F162" s="29"/>
       <c r="G162" s="30"/>
       <c r="H162" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I162" s="31"/>
       <c r="J162" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K162" s="27">
         <v>20</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="163" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="19"/>
-      <c r="B163" s="50"/>
+      <c r="B163" s="51"/>
       <c r="C163" s="33" t="s">
         <v>23</v>
       </c>
@@ -5855,11 +5855,11 @@
       <c r="F163" s="29"/>
       <c r="G163" s="30"/>
       <c r="H163" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I163" s="31"/>
       <c r="J163" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K163" s="27">
         <v>0</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="164" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="19"/>
-      <c r="B164" s="50"/>
+      <c r="B164" s="51"/>
       <c r="C164" s="33" t="s">
         <v>24</v>
       </c>
@@ -5888,11 +5888,11 @@
       <c r="F164" s="29"/>
       <c r="G164" s="30"/>
       <c r="H164" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I164" s="31"/>
       <c r="J164" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K164" s="27">
         <v>0</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="165" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="19"/>
-      <c r="B165" s="51"/>
+      <c r="B165" s="52"/>
       <c r="C165" s="33" t="s">
         <v>25</v>
       </c>
@@ -5921,11 +5921,11 @@
       <c r="F165" s="29"/>
       <c r="G165" s="30"/>
       <c r="H165" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I165" s="31"/>
       <c r="J165" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K165" s="27">
         <v>0</v>
@@ -5945,11 +5945,11 @@
     </row>
     <row r="166" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12"/>
-      <c r="B166" s="49">
+      <c r="B166" s="50">
         <v>32</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>18</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="167" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="19"/>
-      <c r="B167" s="50"/>
+      <c r="B167" s="51"/>
       <c r="C167" s="33" t="s">
         <v>20</v>
       </c>
@@ -5979,11 +5979,11 @@
       <c r="F167" s="29"/>
       <c r="G167" s="30"/>
       <c r="H167" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I167" s="31"/>
       <c r="J167" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K167" s="27">
         <v>0</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="168" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19"/>
-      <c r="B168" s="50"/>
+      <c r="B168" s="51"/>
       <c r="C168" s="33" t="s">
         <v>23</v>
       </c>
@@ -6012,11 +6012,11 @@
       <c r="F168" s="29"/>
       <c r="G168" s="30"/>
       <c r="H168" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I168" s="31"/>
       <c r="J168" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K168" s="27">
         <v>0</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="169" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="19"/>
-      <c r="B169" s="50"/>
+      <c r="B169" s="51"/>
       <c r="C169" s="33" t="s">
         <v>24</v>
       </c>
@@ -6045,11 +6045,11 @@
       <c r="F169" s="29"/>
       <c r="G169" s="30"/>
       <c r="H169" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I169" s="31"/>
       <c r="J169" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K169" s="27">
         <v>0</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="170" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="19"/>
-      <c r="B170" s="51"/>
+      <c r="B170" s="52"/>
       <c r="C170" s="33" t="s">
         <v>25</v>
       </c>
@@ -6078,11 +6078,11 @@
       <c r="F170" s="29"/>
       <c r="G170" s="30"/>
       <c r="H170" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I170" s="31"/>
       <c r="J170" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K170" s="27">
         <v>0</v>
@@ -6102,11 +6102,11 @@
     </row>
     <row r="171" spans="1:15" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12"/>
-      <c r="B171" s="49">
+      <c r="B171" s="50">
         <v>33</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D171" s="14" t="s">
         <v>18</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="172" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="19"/>
-      <c r="B172" s="50"/>
+      <c r="B172" s="51"/>
       <c r="C172" s="33" t="s">
         <v>20</v>
       </c>
@@ -6136,11 +6136,11 @@
       <c r="F172" s="29"/>
       <c r="G172" s="30"/>
       <c r="H172" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I172" s="31"/>
       <c r="J172" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K172" s="27">
         <v>0</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="173" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19"/>
-      <c r="B173" s="50"/>
+      <c r="B173" s="51"/>
       <c r="C173" s="33" t="s">
         <v>23</v>
       </c>
@@ -6169,11 +6169,11 @@
       <c r="F173" s="29"/>
       <c r="G173" s="30"/>
       <c r="H173" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I173" s="31"/>
       <c r="J173" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K173" s="27">
         <v>0</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="174" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="19"/>
-      <c r="B174" s="50"/>
+      <c r="B174" s="51"/>
       <c r="C174" s="33" t="s">
         <v>24</v>
       </c>
@@ -6202,11 +6202,11 @@
       <c r="F174" s="29"/>
       <c r="G174" s="30"/>
       <c r="H174" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I174" s="31"/>
       <c r="J174" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K174" s="27">
         <v>0</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="175" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19"/>
-      <c r="B175" s="51"/>
+      <c r="B175" s="52"/>
       <c r="C175" s="33" t="s">
         <v>25</v>
       </c>
@@ -6235,11 +6235,11 @@
       <c r="F175" s="29"/>
       <c r="G175" s="30"/>
       <c r="H175" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I175" s="31"/>
       <c r="J175" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K175" s="27">
         <v>0</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="176" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="12"/>
-      <c r="B176" s="49">
+      <c r="B176" s="50">
         <v>34</v>
       </c>
       <c r="C176" s="13" t="s">
@@ -6284,7 +6284,7 @@
     </row>
     <row r="177" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="19"/>
-      <c r="B177" s="50"/>
+      <c r="B177" s="51"/>
       <c r="C177" s="33" t="s">
         <v>20</v>
       </c>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="I177" s="31"/>
       <c r="J177" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K177" s="27">
         <v>0</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="178" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="19"/>
-      <c r="B178" s="50"/>
+      <c r="B178" s="51"/>
       <c r="C178" s="33" t="s">
         <v>23</v>
       </c>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="I178" s="31"/>
       <c r="J178" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K178" s="27">
         <v>0</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="179" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="19"/>
-      <c r="B179" s="50"/>
+      <c r="B179" s="51"/>
       <c r="C179" s="33" t="s">
         <v>24</v>
       </c>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="I179" s="31"/>
       <c r="J179" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K179" s="27">
         <v>0</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19"/>
-      <c r="B180" s="51"/>
+      <c r="B180" s="52"/>
       <c r="C180" s="33" t="s">
         <v>25</v>
       </c>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="I180" s="31"/>
       <c r="J180" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K180" s="27">
         <v>0</v>
@@ -6416,11 +6416,11 @@
     </row>
     <row r="181" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="12"/>
-      <c r="B181" s="49">
+      <c r="B181" s="50">
         <v>35</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D181" s="14" t="s">
         <v>30</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="182" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="19"/>
-      <c r="B182" s="50"/>
+      <c r="B182" s="51"/>
       <c r="C182" s="33" t="s">
         <v>20</v>
       </c>
@@ -6450,11 +6450,11 @@
       <c r="F182" s="29"/>
       <c r="G182" s="30"/>
       <c r="H182" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I182" s="31"/>
       <c r="J182" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K182" s="27">
         <v>0</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="19"/>
-      <c r="B183" s="50"/>
+      <c r="B183" s="51"/>
       <c r="C183" s="33" t="s">
         <v>23</v>
       </c>
@@ -6483,11 +6483,11 @@
       <c r="F183" s="29"/>
       <c r="G183" s="30"/>
       <c r="H183" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I183" s="31"/>
       <c r="J183" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K183" s="27">
         <v>0</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="184" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="19"/>
-      <c r="B184" s="50"/>
+      <c r="B184" s="51"/>
       <c r="C184" s="33" t="s">
         <v>24</v>
       </c>
@@ -6516,11 +6516,11 @@
       <c r="F184" s="29"/>
       <c r="G184" s="30"/>
       <c r="H184" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I184" s="31"/>
       <c r="J184" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K184" s="27">
         <v>0</v>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="185" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="19"/>
-      <c r="B185" s="51"/>
+      <c r="B185" s="52"/>
       <c r="C185" s="33" t="s">
         <v>25</v>
       </c>
@@ -6549,11 +6549,11 @@
       <c r="F185" s="29"/>
       <c r="G185" s="30"/>
       <c r="H185" s="33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I185" s="31"/>
       <c r="J185" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K185" s="27">
         <v>0</v>
@@ -6573,13 +6573,15 @@
     </row>
     <row r="186" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12"/>
-      <c r="B186" s="49">
+      <c r="B186" s="50">
         <v>36</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D186" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E186" s="15"/>
       <c r="F186" s="16"/>
       <c r="G186" s="17" t="s">
@@ -6596,7 +6598,7 @@
     </row>
     <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="19"/>
-      <c r="B187" s="50"/>
+      <c r="B187" s="51"/>
       <c r="C187" s="33" t="s">
         <v>20</v>
       </c>
@@ -6609,7 +6611,7 @@
       </c>
       <c r="I187" s="31"/>
       <c r="J187" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K187" s="27">
         <v>0</v>
@@ -6629,7 +6631,7 @@
     </row>
     <row r="188" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="19"/>
-      <c r="B188" s="50"/>
+      <c r="B188" s="51"/>
       <c r="C188" s="33" t="s">
         <v>23</v>
       </c>
@@ -6642,7 +6644,7 @@
       </c>
       <c r="I188" s="31"/>
       <c r="J188" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K188" s="27">
         <v>0</v>
@@ -6662,7 +6664,7 @@
     </row>
     <row r="189" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19"/>
-      <c r="B189" s="50"/>
+      <c r="B189" s="51"/>
       <c r="C189" s="33" t="s">
         <v>24</v>
       </c>
@@ -6675,7 +6677,7 @@
       </c>
       <c r="I189" s="31"/>
       <c r="J189" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K189" s="27">
         <v>0</v>
@@ -6695,7 +6697,7 @@
     </row>
     <row r="190" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="19"/>
-      <c r="B190" s="51"/>
+      <c r="B190" s="52"/>
       <c r="C190" s="33" t="s">
         <v>25</v>
       </c>
@@ -6708,7 +6710,7 @@
       </c>
       <c r="I190" s="31"/>
       <c r="J190" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K190" s="27">
         <v>0</v>
@@ -6728,13 +6730,15 @@
     </row>
     <row r="191" spans="1:15" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12"/>
-      <c r="B191" s="49">
+      <c r="B191" s="50">
         <v>37</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D191" s="14"/>
+      <c r="D191" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="E191" s="15"/>
       <c r="F191" s="16"/>
       <c r="G191" s="17" t="s">
@@ -6751,7 +6755,7 @@
     </row>
     <row r="192" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="19"/>
-      <c r="B192" s="50"/>
+      <c r="B192" s="51"/>
       <c r="C192" s="33" t="s">
         <v>20</v>
       </c>
@@ -6764,7 +6768,7 @@
       </c>
       <c r="I192" s="31"/>
       <c r="J192" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K192" s="27">
         <v>0</v>
@@ -6784,7 +6788,7 @@
     </row>
     <row r="193" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="19"/>
-      <c r="B193" s="50"/>
+      <c r="B193" s="51"/>
       <c r="C193" s="33" t="s">
         <v>23</v>
       </c>
@@ -6797,7 +6801,7 @@
       </c>
       <c r="I193" s="31"/>
       <c r="J193" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K193" s="27">
         <v>0</v>
@@ -6817,7 +6821,7 @@
     </row>
     <row r="194" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19"/>
-      <c r="B194" s="50"/>
+      <c r="B194" s="51"/>
       <c r="C194" s="33" t="s">
         <v>24</v>
       </c>
@@ -6830,7 +6834,7 @@
       </c>
       <c r="I194" s="31"/>
       <c r="J194" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K194" s="27">
         <v>0</v>
@@ -6850,7 +6854,7 @@
     </row>
     <row r="195" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="19"/>
-      <c r="B195" s="51"/>
+      <c r="B195" s="52"/>
       <c r="C195" s="33" t="s">
         <v>25</v>
       </c>
@@ -6863,7 +6867,7 @@
       </c>
       <c r="I195" s="31"/>
       <c r="J195" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K195" s="27">
         <v>0</v>
@@ -6883,13 +6887,15 @@
     </row>
     <row r="196" spans="1:16" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="12"/>
-      <c r="B196" s="49">
+      <c r="B196" s="50">
         <v>38</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D196" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="D196" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E196" s="15"/>
       <c r="F196" s="16"/>
       <c r="G196" s="17" t="s">
@@ -6906,7 +6912,7 @@
     </row>
     <row r="197" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="19"/>
-      <c r="B197" s="50"/>
+      <c r="B197" s="51"/>
       <c r="C197" s="33" t="s">
         <v>20</v>
       </c>
@@ -6919,7 +6925,7 @@
       </c>
       <c r="I197" s="31"/>
       <c r="J197" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K197" s="27">
         <v>0</v>
@@ -6939,7 +6945,7 @@
     </row>
     <row r="198" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="19"/>
-      <c r="B198" s="50"/>
+      <c r="B198" s="51"/>
       <c r="C198" s="33" t="s">
         <v>23</v>
       </c>
@@ -6952,7 +6958,7 @@
       </c>
       <c r="I198" s="31"/>
       <c r="J198" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K198" s="27">
         <v>0</v>
@@ -6972,7 +6978,7 @@
     </row>
     <row r="199" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="19"/>
-      <c r="B199" s="50"/>
+      <c r="B199" s="51"/>
       <c r="C199" s="33" t="s">
         <v>24</v>
       </c>
@@ -6985,7 +6991,7 @@
       </c>
       <c r="I199" s="31"/>
       <c r="J199" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K199" s="27">
         <v>0</v>
@@ -7005,7 +7011,7 @@
     </row>
     <row r="200" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="19"/>
-      <c r="B200" s="51"/>
+      <c r="B200" s="52"/>
       <c r="C200" s="33" t="s">
         <v>25</v>
       </c>
@@ -7018,7 +7024,7 @@
       </c>
       <c r="I200" s="31"/>
       <c r="J200" s="27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K200" s="27">
         <v>0</v>
@@ -10700,7 +10706,6 @@
     <row r="1057" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B171:B175"/>
     <mergeCell ref="B196:B200"/>
     <mergeCell ref="B46:B50"/>
     <mergeCell ref="B31:B35"/>
@@ -10716,33 +10721,34 @@
     <mergeCell ref="B181:B185"/>
     <mergeCell ref="B141:B145"/>
     <mergeCell ref="B146:B150"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B75"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B86:B90"/>
     <mergeCell ref="B176:B180"/>
     <mergeCell ref="B136:B140"/>
     <mergeCell ref="B131:B135"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B166:B170"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="B171:B175"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items (To Do, Progress, Blocked, Done, or Cancelled)" sqref="H117:H120 H107:H110 H17:H20 H22:H25 H92:H100 H47:H50 H52:H55 H57:H60 H62:H65 H72:H75 H12:H15 H192:H195 H102:H105 H122:H125 H127:H130 H87:H90 H147:H150 H162:H165 H132:H135 H42:H45 H187:H190 H67:H70 H182:H185 H112:H115 H7:H10 H77:H80 H27:H30 H82:H85 H177:H180 H32:H35 H37:H40 H137:H140 H142:H145 H152:H155 H157:H160 H167:H170 H172:H175 H197:H200" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items (To Do, Progress, Blocked, Done, or Cancelled)" sqref="H117:H120 H107:H110 H17:H20 H22:H25 H92:H100 H47:H50 H52:H55 H57:H60 H62:H65 H72:H75 H12:H15 H192:H195 H102:H105 H122:H125 H127:H130 H87:H90 H147:H150 H157:H160 H132:H135 H197:H200 H187:H190 H67:H70 H162:H165 H112:H115 H7:H10 H77:H80 H27:H30 H82:H85 H177:H180 H32:H35 H42:H45 H137:H140 H142:H145 H37:H40 H152:H155 H172:H175 H182:H185 H167:H170" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"To Do,Progress,Blocked,Done,Cancelled"</formula1>
     </dataValidation>
   </dataValidations>
